--- a/BA_imp.xlsx
+++ b/BA_imp.xlsx
@@ -26,772 +26,772 @@
     <t xml:space="preserve">sum_gain</t>
   </si>
   <si>
+    <t xml:space="preserve">CocamidoprpylBetaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retinoic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2R)-3-Hydroxyisovaleroylcarnitine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adenosine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ropivacaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha-Methylhistidine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.alpha.-Hydroxyprogesterone .beta.-D-glucuronide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erucamide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-Hydroxyflavone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glycocholic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Acetylmethionine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isovaleryl-L-carnitine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Methylvaline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gamma-Glutamylleucine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiazolidine-4-carboxylic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhodamine B cation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torasemide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Methylguanosine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theanine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glycodeoxycholic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abietic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">His-Pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyr-Leu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uridine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-(N-Morpholino)ethanesulfonic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-Aminomethylcyclohexanecarboxylic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metronidazole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phe-Phe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ergothioneine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indole-3-carboxaldehyde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tris(2-butoxyethyl) phosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carnosine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphocholine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-)-Pseudoephedrine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Progesterone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taurocholic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phthalic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nandrolone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16-Glucuronide-estriol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-(1-Pyrazolyl)-alanine?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LID_207.1492_9.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">His-Leu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Hexadecylpyridinium cation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.alpha.-Hydroxy-3-oxo-4-cholestenoic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raffinose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irbesartan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hexanoyl-L-carnitine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trimethylamine N-oxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diethyltoluamide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estriol 16.alpha.-(.beta.-D-glucuronide)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Acetylhistidine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guanidine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mono-2-ethylhexyl phthalate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyclo(Leu-Pro)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VEN_278.2114_12.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-Cysteinylacetaminophen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-Methylcytosine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difenoconazole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Methylproline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxazepam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citrulline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indole-3-propionic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-Hydroxymandelonitrile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parecoxib</t>
+  </si>
+  <si>
     <t xml:space="preserve">2-Furanpropanoic acid, 3-carboxy-4-methyl-5-propyl-</t>
   </si>
   <si>
+    <t xml:space="preserve">Lysine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-Methoxy-3-indoleacetic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-Cyclohexyl-1,1-dimethylurea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ala-Ile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asp-Phe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diazepam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tris(1,3-dichloro-2-propyl) phosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-Pyridoxic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adenine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methamphetamine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Methyl-L-histidine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Cyclohexylformamide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspartic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diltiazem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR 89696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methioninesulfoxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linoleoylcarnitine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sucrose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urocanic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loratadine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(-)-Ephedrine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lauric acid diethanolamide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PyroGlu-Val-Lys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tacrolimus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,4-Cyclohexanedione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2'-O-Methylinosine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avobenzone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benactyzine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlorhexidine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methacholine cation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mosapride</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choline cation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promethazine sulfoxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propionylcarnitine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cortisone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Picrotin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ampicillin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-Turanose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glutathione (reduced)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N,N-Diethyl-2-aminoethanol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nobiletin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nudifloramide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Methylnicotinamide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,2',2''-Nitrilotriethanol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anserine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creatine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dimethyl?sulfoxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geranic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acetominophen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codeine-6-.beta.-D-glucuronide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spermidine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3-Carboxypropyl)trimethylammonium cation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(R)-Butyrylcarnitine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-Acetamidobutyric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glutathione (oxidized)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ornithine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phenylacetaldehyde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1H-Indole-3-ethanamine, N-ethyl-5-methoxy-N-propyl-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caffeine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kynurenic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N.alpha.-Methyl-L-lysine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tangeritin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phthalic anhydride</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serotonin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tauroursodeoxycholic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cytidine 5'-diphosphocholine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galacto-N-biose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glaucine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hypoxanthine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isomaltose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liquiritigenin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melibiose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meprobamate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piperine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">threo-Dihydrobupropion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ticlopidine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2'-O-Methylcytidine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.alpha.,17.alpha.-Dimethyl-5.beta.-androstane-3.alpha.,17.beta.-diol glucuronide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acetylcarnitine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bis(2-ethylhexyl) adipate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lauroyl-L-carnitine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicotinamide riboside cation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phencyclidine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spermine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-Hydroxybutyrylcarnitine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decanoyl-L-carnitine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heptadecasphing-4-enine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indarubicin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Methylhistidine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Octanoylcarnitine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pantothenic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theophylline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adenosine 5'-diphosphoribose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arachidonyl dopamine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta-Nicotinamide adenine dinucleotide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carnitine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Losartan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-omega-Acetylhistamine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trigonelline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,6-Diaminopimelic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acetaminophen glucuronide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antipyrine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glu-Val</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glycerophosphocholine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ile-Gln</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inosine 5'-monophosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kynurenine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-Homocitrulline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-(4-Hydroxyphenyl)arachidonoyl?amide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Acetylcytidine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quinolone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riboflavin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scopoletin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SDMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stachydrine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trimethoprim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(S)-Cotinine N-oxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,3-Dicyclohexylurea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-Indolinone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allothreonine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dicyclohexylamine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DL-Benzylsuccinic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethylenediaminetetraacetic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glutamic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H-gamma-glutamyl-glutamine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meperidine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methionine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N,N-Dimethylarginine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norleucine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phenylalanine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyrosine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uridine-5-diphosphoacetylgalactosamine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zileuton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-Hydroxysebacic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-Aminophenol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-Methylmercaptopurine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydroxychloroquine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idebenone</t>
+  </si>
+  <si>
     <t xml:space="preserve">Inosine</t>
   </si>
   <si>
-    <t xml:space="preserve">Raffinose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2'-O-Methylcytidine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-(1-Pyrazolyl)-alanine?</t>
+    <t xml:space="preserve">Latanoprost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N.epsilon.-Methyl-L-lysine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N8-Acetylspermidine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranitidine-S-oxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorbitane Monopalmitate - Polysorbate 40 in-source fragment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trans-3'-Hydroxycotinine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trp-Leu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,7-Dimethyluric acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agmatine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beclomethasone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guanine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homoarginine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isoleucine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2,N2-Dimethylguanosine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-Acetyl-L-carnosine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N-cyano-N'-(1,1-dimethylpropyl)-N''-3-pyridinyl-guanidine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicotine N-.beta.-D-glucuronide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palmitoylcarnitine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranitidine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trimebutine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Methyladenosine A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abscisic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adenosine-3-monophosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amiloride</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dehydrocholic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-Pyroglutamic acid</t>
   </si>
   <si>
     <t xml:space="preserve">Glutamine</t>
   </si>
   <si>
-    <t xml:space="preserve">Spermine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acetylcarnitine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diltiazem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-Acetamidobutyric acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phencyclidine</t>
+    <t xml:space="preserve">Histidine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ile-Leu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEPSILON,NEPSILON,NEPSILON-TRIMETHYLLYSINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oleoyl-L-carnitine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phenylacetylglutamine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PyroGlu-Met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PyroGlu-Trp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tryptophan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-Hydroxyacetophenone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-Indoleacetic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-Methylguanine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betonicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creatinine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dihydrozeatin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Di-n-butyl phthalate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H-Pro-Hyp-OH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ile-Phe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imidazole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medroxyprogesterone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phenylethanolamine</t>
   </si>
   <si>
     <t xml:space="preserve">Thr-Phe</t>
   </si>
   <si>
-    <t xml:space="preserve">Phthalic anhydride</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxazepam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promethazine sulfoxide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palmitoylcarnitine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N,N-Diethyl-2-aminoethanol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tyr-Leu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oleoyl-L-carnitine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spermidine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quinolone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N-Acetylcytidine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Picrotin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-Methoxy-3-indoleacetic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phenylacetaldehyde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hexanoyl-L-carnitine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16-Glucuronide-estriol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sorbitane Monopalmitate - Polysorbate 40 in-source fragment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.alpha.-Hydroxy-3-oxo-4-cholestenoic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amiloride</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D-Turanose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abscisic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cytidine 5'-diphosphocholine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taurocholic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Propionylcarnitine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piperine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-Hydroxyacetophenone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Progesterone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-Indolinone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lauroyl-L-carnitine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,2',2''-Nitrilotriethanol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-Methylmercaptopurine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estriol 16.alpha.-(.beta.-D-glucuronide)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phosphocholine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riboflavin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N-Cyclohexylformamide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acetominophen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methacholine cation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N2,N2-Dimethylguanosine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PyroGlu-Met</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-)-Ephedrine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2R)-3-Hydroxyisovaleroylcarnitine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ranitidine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adenosine-3-monophosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-Hexadecylpyridinium cation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avobenzone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geranic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sucrose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dihydrozeatin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kynurenic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N8-Acetylspermidine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urocanic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Histidine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serotonin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PyroGlu-Val-Lys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stachydrine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(-)-Pseudoephedrine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-(N-Morpholino)ethanesulfonic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indole-3-carboxaldehyde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-Hydroxymandelonitrile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agmatine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arachidonyl dopamine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phenylethanolamine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tacrolimus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-Hydroxyflavone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2'-O-Methylinosine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.alpha.,17.alpha.-Dimethyl-5.beta.-androstane-3.alpha.,17.beta.-diol glucuronide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nobiletin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicotinamide riboside cation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metronidazole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PyroGlu-Trp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anserine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1H-Indole-3-ethanamine, N-ethyl-5-methoxy-N-propyl-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-Aminomethylcyclohexanecarboxylic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glycerophosphocholine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-Methyl-L-histidine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-Methylnicotinamide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tris(2-butoxyethyl) phosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lysine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loratadine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pantothenic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adenine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asp-Phe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hypoxanthine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medroxyprogesterone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parecoxib</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Theanine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trans-3'-Hydroxycotinine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carnosine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,6-Diaminopimelic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decanoyl-L-carnitine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D-Pyroglutamic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methioninesulfoxide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicotine N-.beta.-D-glucuronide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N,N-Dimethylarginine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.epsilon.-Methyl-L-lysine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N-Acetylmethionine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-Hydroxybutyrylcarnitine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melibiose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trigonelline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ornithine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,4-Cyclohexanedione</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Galacto-N-biose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GR 89696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tangeritin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-Indoleacetic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mono-2-ethylhexyl phthalate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydroxychloroquine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nudifloramide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-Pyridoxic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methamphetamine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difenoconazole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(R)-Butyrylcarnitine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Losartan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glycocholic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meprobamate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alpha-Methylhistidine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kynurenine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-Aminophenol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H-Pro-Hyp-OH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Octanoylcarnitine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allothreonine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-Methylcytosine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phenylalanine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-Methylguanosine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ampicillin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meperidine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,7-Dimethyluric acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7-Methylguanine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N-Methylproline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tauroursodeoxycholic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erucamide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phe-Phe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chlorhexidine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ropivacaine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ranitidine-S-oxide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,3-Dicyclohexylurea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cortisone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glaucine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beclomethasone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta-Nicotinamide adenine dinucleotide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indole-3-propionic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phenylacetylglutamine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ile-Leu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ile-Phe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linoleoylcarnitine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tyrosine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-Methyladenosine A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L-Homocitrulline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mosapride</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antipyrine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indarubicin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N-(4-Hydroxyphenyl)arachidonoyl?amide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-Hydroxysebacic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glutathione (reduced)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LID_207.1492_9.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N-Acetyl-L-carnosine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scopoletin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CocamidoprpylBetaine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H-gamma-glutamyl-glutamine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lauric acid diethanolamide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aspartic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trp-Leu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acetaminophen glucuronide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ala-Ile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">His-Pro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irbesartan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phthalic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zileuton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dehydrocholic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Idebenone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torasemide</t>
-  </si>
-  <si>
     <t xml:space="preserve">Urea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adenosine 5'-diphosphoribose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Betonicine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tryptophan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uridine-5-diphosphoacetylgalactosamine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3-Carboxypropyl)trimethylammonium cation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-Cysteinylacetaminophen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isovaleryl-L-carnitine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.alpha.-Methyl-L-lysine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nandrolone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEPSILON,NEPSILON,NEPSILON-TRIMETHYLLYSINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(S)-Cotinine N-oxide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benactyzine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guanine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">His-Leu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methionine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retinoic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">threo-Dihydrobupropion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trimebutine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trimethylamine N-oxide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choline cation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gamma-Glutamylleucine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inosine 5'-monophosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liquiritigenin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N-Methylhistidine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3-Cyclohexyl-1,1-dimethylurea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Betaine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carnitine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Codeine-6-.beta.-D-glucuronide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creatinine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diethyltoluamide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glutamic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thiazolidine-4-carboxylic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trimethoprim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEN_278.2114_12.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isoleucine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N-cyano-N'-(1,1-dimethylpropyl)-N''-3-pyridinyl-guanidine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guanidine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heptadecasphing-4-enine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tris(1,3-dichloro-2-propyl) phosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abietic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bis(2-ethylhexyl) adipate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diazepam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dimethyl?sulfoxide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glycodeoxycholic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N-Acetylhistidine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N-omega-Acetylhistamine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Theophylline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adenosine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creatine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dicyclohexylamine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Di-n-butyl phthalate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homoarginine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N-Methylvaline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norleucine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhodamine B cation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uridine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.alpha.-Hydroxyprogesterone .beta.-D-glucuronide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caffeine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Citrulline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyclo(Leu-Pro)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DL-Benzylsuccinic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ergothioneine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethylenediaminetetraacetic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glutathione (oxidized)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glu-Val</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ile-Gln</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imidazole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isomaltose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latanoprost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ticlopidine</t>
   </si>
 </sst>
 </file>
@@ -1142,13 +1142,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>901</v>
+        <v>653</v>
       </c>
       <c r="C2" t="n">
-        <v>3857.88114355699</v>
+        <v>7522.64566694678</v>
       </c>
       <c r="D2" t="n">
-        <v>3.71707923407184</v>
+        <v>30.0155032776085</v>
       </c>
     </row>
     <row r="3">
@@ -1156,13 +1156,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>819</v>
+        <v>266</v>
       </c>
       <c r="C3" t="n">
-        <v>3219.31809104998</v>
+        <v>7566.47936771426</v>
       </c>
       <c r="D3" t="n">
-        <v>0.82950547548207</v>
+        <v>44.6528100018096</v>
       </c>
     </row>
     <row r="4">
@@ -1170,13 +1170,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>727</v>
+        <v>247</v>
       </c>
       <c r="C4" t="n">
-        <v>3495.75239880518</v>
+        <v>4854.01479584894</v>
       </c>
       <c r="D4" t="n">
-        <v>4.30353747468553</v>
+        <v>11.0352317310221</v>
       </c>
     </row>
     <row r="5">
@@ -1184,13 +1184,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>591</v>
+        <v>247</v>
       </c>
       <c r="C5" t="n">
-        <v>3248.59234248497</v>
+        <v>5445.20071581118</v>
       </c>
       <c r="D5" t="n">
-        <v>1.0019059780194</v>
+        <v>22.1418713239624</v>
       </c>
     </row>
     <row r="6">
@@ -1198,13 +1198,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>513</v>
+        <v>213</v>
       </c>
       <c r="C6" t="n">
-        <v>5020.12066534828</v>
+        <v>5364.23073774908</v>
       </c>
       <c r="D6" t="n">
-        <v>15.3882543184102</v>
+        <v>20.5955028690656</v>
       </c>
     </row>
     <row r="7">
@@ -1212,13 +1212,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>481</v>
+        <v>209</v>
       </c>
       <c r="C7" t="n">
-        <v>2681.69839611724</v>
+        <v>4378.98001461105</v>
       </c>
       <c r="D7" t="n">
-        <v>0.65348701475525</v>
+        <v>6.57079094807721</v>
       </c>
     </row>
     <row r="8">
@@ -1226,13 +1226,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>460</v>
+        <v>187</v>
       </c>
       <c r="C8" t="n">
-        <v>2857.47861764117</v>
+        <v>6621.71070065072</v>
       </c>
       <c r="D8" t="n">
-        <v>0.725885756348979</v>
+        <v>25.9750776142139</v>
       </c>
     </row>
     <row r="9">
@@ -1240,13 +1240,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>449</v>
+        <v>169</v>
       </c>
       <c r="C9" t="n">
-        <v>2856.74460158529</v>
+        <v>4005.56516190648</v>
       </c>
       <c r="D9" t="n">
-        <v>0.566454732817015</v>
+        <v>4.48271956743369</v>
       </c>
     </row>
     <row r="10">
@@ -1254,13 +1254,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>391</v>
+        <v>168</v>
       </c>
       <c r="C10" t="n">
-        <v>3474.64513879524</v>
+        <v>4407.33330939984</v>
       </c>
       <c r="D10" t="n">
-        <v>3.79173855563716</v>
+        <v>8.14647844250579</v>
       </c>
     </row>
     <row r="11">
@@ -1268,13 +1268,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>382</v>
+        <v>163</v>
       </c>
       <c r="C11" t="n">
-        <v>3091.36975767602</v>
+        <v>4990.77470022459</v>
       </c>
       <c r="D11" t="n">
-        <v>1.29658654384554</v>
+        <v>10.1269086023581</v>
       </c>
     </row>
     <row r="12">
@@ -1282,13 +1282,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>364</v>
+        <v>153</v>
       </c>
       <c r="C12" t="n">
-        <v>3180.75753719263</v>
+        <v>4275.23592309713</v>
       </c>
       <c r="D12" t="n">
-        <v>0.965894696036703</v>
+        <v>10.8465392565719</v>
       </c>
     </row>
     <row r="13">
@@ -1296,13 +1296,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>358</v>
+        <v>150</v>
       </c>
       <c r="C13" t="n">
-        <v>2731.77997474715</v>
+        <v>5422.10951669582</v>
       </c>
       <c r="D13" t="n">
-        <v>1.15635288840834</v>
+        <v>15.3074740140077</v>
       </c>
     </row>
     <row r="14">
@@ -1310,13 +1310,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>345</v>
+        <v>144</v>
       </c>
       <c r="C14" t="n">
-        <v>2631.28587278313</v>
+        <v>5457.46267158753</v>
       </c>
       <c r="D14" t="n">
-        <v>0.249832448423903</v>
+        <v>20.2889739252688</v>
       </c>
     </row>
     <row r="15">
@@ -1324,13 +1324,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>337</v>
+        <v>137</v>
       </c>
       <c r="C15" t="n">
-        <v>4904.97761576094</v>
+        <v>4054.42062902375</v>
       </c>
       <c r="D15" t="n">
-        <v>14.2903160102469</v>
+        <v>5.34853250294556</v>
       </c>
     </row>
     <row r="16">
@@ -1338,13 +1338,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>332</v>
+        <v>137</v>
       </c>
       <c r="C16" t="n">
-        <v>2590.00928189319</v>
+        <v>4793.49492454113</v>
       </c>
       <c r="D16" t="n">
-        <v>0.40211747644104</v>
+        <v>8.61014597262997</v>
       </c>
     </row>
     <row r="17">
@@ -1352,13 +1352,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>322</v>
+        <v>134</v>
       </c>
       <c r="C17" t="n">
-        <v>2452.09963072827</v>
+        <v>4045.84998269578</v>
       </c>
       <c r="D17" t="n">
-        <v>0.129894962172179</v>
+        <v>4.99410173515583</v>
       </c>
     </row>
     <row r="18">
@@ -1366,13 +1366,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>321</v>
+        <v>132</v>
       </c>
       <c r="C18" t="n">
-        <v>3046.85350901532</v>
+        <v>6036.48956795249</v>
       </c>
       <c r="D18" t="n">
-        <v>1.4253886740615</v>
+        <v>39.2955673107647</v>
       </c>
     </row>
     <row r="19">
@@ -1380,13 +1380,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>318</v>
+        <v>107</v>
       </c>
       <c r="C19" t="n">
-        <v>3927.9645561941</v>
+        <v>3847.82018439401</v>
       </c>
       <c r="D19" t="n">
-        <v>3.7904528985736</v>
+        <v>3.60451403196348</v>
       </c>
     </row>
     <row r="20">
@@ -1394,13 +1394,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>305</v>
+        <v>105</v>
       </c>
       <c r="C20" t="n">
-        <v>3476.68544506266</v>
+        <v>4796.76166521466</v>
       </c>
       <c r="D20" t="n">
-        <v>3.339503957532</v>
+        <v>8.46684926192581</v>
       </c>
     </row>
     <row r="21">
@@ -1408,13 +1408,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="n">
-        <v>283</v>
+        <v>101</v>
       </c>
       <c r="C21" t="n">
-        <v>2665.33916404772</v>
+        <v>4691.43822490499</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4023579009707</v>
+        <v>14.8389497082382</v>
       </c>
     </row>
     <row r="22">
@@ -1422,13 +1422,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>269</v>
+        <v>90</v>
       </c>
       <c r="C22" t="n">
-        <v>2958.8566122474</v>
+        <v>4212.94178227728</v>
       </c>
       <c r="D22" t="n">
-        <v>0.588784337727386</v>
+        <v>6.36651237399519</v>
       </c>
     </row>
     <row r="23">
@@ -1436,13 +1436,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="n">
-        <v>256</v>
+        <v>86</v>
       </c>
       <c r="C23" t="n">
-        <v>3088.69631171085</v>
+        <v>4783.93372627936</v>
       </c>
       <c r="D23" t="n">
-        <v>1.18341853160774</v>
+        <v>6.29222759022061</v>
       </c>
     </row>
     <row r="24">
@@ -1450,13 +1450,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="n">
-        <v>253</v>
+        <v>83</v>
       </c>
       <c r="C24" t="n">
-        <v>3136.08729599611</v>
+        <v>3434.99931311906</v>
       </c>
       <c r="D24" t="n">
-        <v>1.4363506940541</v>
+        <v>3.54098675190034</v>
       </c>
     </row>
     <row r="25">
@@ -1464,13 +1464,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="n">
-        <v>245</v>
+        <v>81</v>
       </c>
       <c r="C25" t="n">
-        <v>3365.74695328667</v>
+        <v>3450.44955979296</v>
       </c>
       <c r="D25" t="n">
-        <v>1.63638422023761</v>
+        <v>4.05394418021948</v>
       </c>
     </row>
     <row r="26">
@@ -1478,13 +1478,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="n">
-        <v>242</v>
+        <v>67</v>
       </c>
       <c r="C26" t="n">
-        <v>3266.50522990842</v>
+        <v>5749.20307257926</v>
       </c>
       <c r="D26" t="n">
-        <v>3.0819799377286</v>
+        <v>23.4566199673103</v>
       </c>
     </row>
     <row r="27">
@@ -1492,13 +1492,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="n">
-        <v>240</v>
+        <v>67</v>
       </c>
       <c r="C27" t="n">
-        <v>2882.27779723125</v>
+        <v>4105.52401270009</v>
       </c>
       <c r="D27" t="n">
-        <v>0.644465489125583</v>
+        <v>3.54414705098693</v>
       </c>
     </row>
     <row r="28">
@@ -1506,13 +1506,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="n">
-        <v>233</v>
+        <v>65</v>
       </c>
       <c r="C28" t="n">
-        <v>4167.56133490715</v>
+        <v>3190.94213487673</v>
       </c>
       <c r="D28" t="n">
-        <v>6.76312914012679</v>
+        <v>2.43934528024775</v>
       </c>
     </row>
     <row r="29">
@@ -1520,13 +1520,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="n">
-        <v>230</v>
+        <v>65</v>
       </c>
       <c r="C29" t="n">
-        <v>4728.31221981892</v>
+        <v>3643.94435396967</v>
       </c>
       <c r="D29" t="n">
-        <v>10.8025006230825</v>
+        <v>2.47416359664165</v>
       </c>
     </row>
     <row r="30">
@@ -1534,13 +1534,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="n">
-        <v>211</v>
+        <v>64</v>
       </c>
       <c r="C30" t="n">
-        <v>3373.43584429106</v>
+        <v>4010.22468022059</v>
       </c>
       <c r="D30" t="n">
-        <v>0.771738658276325</v>
+        <v>8.12124124575155</v>
       </c>
     </row>
     <row r="31">
@@ -1548,13 +1548,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="n">
-        <v>206</v>
+        <v>64</v>
       </c>
       <c r="C31" t="n">
-        <v>3680.39657311534</v>
+        <v>3866.99224126128</v>
       </c>
       <c r="D31" t="n">
-        <v>4.20253668380605</v>
+        <v>4.62768611798736</v>
       </c>
     </row>
     <row r="32">
@@ -1562,13 +1562,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="n">
-        <v>197</v>
+        <v>63</v>
       </c>
       <c r="C32" t="n">
-        <v>3041.82667083472</v>
+        <v>3321.77751070168</v>
       </c>
       <c r="D32" t="n">
-        <v>1.30673974838073</v>
+        <v>1.89070585726595</v>
       </c>
     </row>
     <row r="33">
@@ -1576,13 +1576,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="n">
-        <v>197</v>
+        <v>61</v>
       </c>
       <c r="C33" t="n">
-        <v>3114.88833917417</v>
+        <v>3406.92526611321</v>
       </c>
       <c r="D33" t="n">
-        <v>0.925124506923765</v>
+        <v>2.73017830888077</v>
       </c>
     </row>
     <row r="34">
@@ -1590,13 +1590,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="n">
-        <v>190</v>
+        <v>61</v>
       </c>
       <c r="C34" t="n">
-        <v>2496.06925258184</v>
+        <v>3721.77799685547</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0897427196502176</v>
+        <v>6.41527377658729</v>
       </c>
     </row>
     <row r="35">
@@ -1604,13 +1604,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="n">
-        <v>190</v>
+        <v>59</v>
       </c>
       <c r="C35" t="n">
-        <v>2995.90793828586</v>
+        <v>3278.07938125724</v>
       </c>
       <c r="D35" t="n">
-        <v>1.17282995022604</v>
+        <v>2.57105629084361</v>
       </c>
     </row>
     <row r="36">
@@ -1618,13 +1618,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="n">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="C36" t="n">
-        <v>4842.74313318035</v>
+        <v>3845.4362270133</v>
       </c>
       <c r="D36" t="n">
-        <v>12.7873459428168</v>
+        <v>3.2997972862272</v>
       </c>
     </row>
     <row r="37">
@@ -1632,13 +1632,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="n">
-        <v>177</v>
+        <v>58</v>
       </c>
       <c r="C37" t="n">
-        <v>3456.533898652</v>
+        <v>4787.18039864506</v>
       </c>
       <c r="D37" t="n">
-        <v>1.27369419665105</v>
+        <v>12.9559945608826</v>
       </c>
     </row>
     <row r="38">
@@ -1646,13 +1646,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="n">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="C38" t="n">
-        <v>3371.17185226615</v>
+        <v>4288.90680734373</v>
       </c>
       <c r="D38" t="n">
-        <v>2.50937198787609</v>
+        <v>12.2065346357271</v>
       </c>
     </row>
     <row r="39">
@@ -1660,13 +1660,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="n">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c r="C39" t="n">
-        <v>2572.33209741592</v>
+        <v>5022.1433482726</v>
       </c>
       <c r="D39" t="n">
-        <v>0.23551218685125</v>
+        <v>14.5779625890028</v>
       </c>
     </row>
     <row r="40">
@@ -1674,13 +1674,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="n">
-        <v>150</v>
+        <v>54</v>
       </c>
       <c r="C40" t="n">
-        <v>3976.52646296448</v>
+        <v>4803.37650716102</v>
       </c>
       <c r="D40" t="n">
-        <v>3.80748856402288</v>
+        <v>10.6589104624984</v>
       </c>
     </row>
     <row r="41">
@@ -1688,13 +1688,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="n">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="C41" t="n">
-        <v>2981.16677084764</v>
+        <v>4961.91740421863</v>
       </c>
       <c r="D41" t="n">
-        <v>1.70603153164664</v>
+        <v>13.5501940534378</v>
       </c>
     </row>
     <row r="42">
@@ -1702,13 +1702,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="n">
-        <v>147</v>
+        <v>52</v>
       </c>
       <c r="C42" t="n">
-        <v>3343.65411036913</v>
+        <v>4273.27242312521</v>
       </c>
       <c r="D42" t="n">
-        <v>2.79084337419621</v>
+        <v>7.70144271040662</v>
       </c>
     </row>
     <row r="43">
@@ -1716,13 +1716,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="n">
-        <v>144</v>
+        <v>51</v>
       </c>
       <c r="C43" t="n">
-        <v>3020.76490150746</v>
+        <v>4016.87222015483</v>
       </c>
       <c r="D43" t="n">
-        <v>0.663981887570711</v>
+        <v>7.03976431999038</v>
       </c>
     </row>
     <row r="44">
@@ -1730,13 +1730,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="n">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="C44" t="n">
-        <v>2879.89355887546</v>
+        <v>5315.05211651813</v>
       </c>
       <c r="D44" t="n">
-        <v>1.28873817917938</v>
+        <v>14.6655025778889</v>
       </c>
     </row>
     <row r="45">
@@ -1744,13 +1744,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="n">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="C45" t="n">
-        <v>5087.18209390083</v>
+        <v>3599.00022594898</v>
       </c>
       <c r="D45" t="n">
-        <v>14.3352761951063</v>
+        <v>3.78241858593237</v>
       </c>
     </row>
     <row r="46">
@@ -1758,13 +1758,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="n">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="C46" t="n">
-        <v>3744.81395694221</v>
+        <v>3542.91084505485</v>
       </c>
       <c r="D46" t="n">
-        <v>5.30112116915332</v>
+        <v>4.96914331278044</v>
       </c>
     </row>
     <row r="47">
@@ -1772,13 +1772,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="n">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="C47" t="n">
-        <v>2993.99869933951</v>
+        <v>3408.65973037755</v>
       </c>
       <c r="D47" t="n">
-        <v>0.33600125843566</v>
+        <v>2.54110460536623</v>
       </c>
     </row>
     <row r="48">
@@ -1786,13 +1786,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="n">
-        <v>136</v>
+        <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>3606.92155116744</v>
+        <v>4187.9445209247</v>
       </c>
       <c r="D48" t="n">
-        <v>3.50548448867827</v>
+        <v>6.72800594688284</v>
       </c>
     </row>
     <row r="49">
@@ -1800,13 +1800,13 @@
         <v>51</v>
       </c>
       <c r="B49" t="n">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="C49" t="n">
-        <v>2875.37409237635</v>
+        <v>3102.04674948646</v>
       </c>
       <c r="D49" t="n">
-        <v>0.756290243974748</v>
+        <v>1.16268729313504</v>
       </c>
     </row>
     <row r="50">
@@ -1814,13 +1814,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="n">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="C50" t="n">
-        <v>3385.8280061536</v>
+        <v>3715.51627988701</v>
       </c>
       <c r="D50" t="n">
-        <v>1.90117437994084</v>
+        <v>5.02068406874166</v>
       </c>
     </row>
     <row r="51">
@@ -1828,13 +1828,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="n">
-        <v>134</v>
+        <v>43</v>
       </c>
       <c r="C51" t="n">
-        <v>2925.82161384796</v>
+        <v>5045.78089533661</v>
       </c>
       <c r="D51" t="n">
-        <v>0.931807240610761</v>
+        <v>13.6139397263317</v>
       </c>
     </row>
     <row r="52">
@@ -1842,13 +1842,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="n">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="C52" t="n">
-        <v>3161.31896162156</v>
+        <v>3809.07968631722</v>
       </c>
       <c r="D52" t="n">
-        <v>0.953996797237594</v>
+        <v>3.90759077374667</v>
       </c>
     </row>
     <row r="53">
@@ -1856,13 +1856,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="n">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="C53" t="n">
-        <v>4359.5055981864</v>
+        <v>3116.77330340927</v>
       </c>
       <c r="D53" t="n">
-        <v>8.603408278835</v>
+        <v>1.37426513494397</v>
       </c>
     </row>
     <row r="54">
@@ -1870,13 +1870,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="n">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="C54" t="n">
-        <v>2972.71656875934</v>
+        <v>3531.28821813149</v>
       </c>
       <c r="D54" t="n">
-        <v>1.64359805135009</v>
+        <v>2.10728188150328</v>
       </c>
     </row>
     <row r="55">
@@ -1884,13 +1884,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="C55" t="n">
-        <v>4750.24852134535</v>
+        <v>3447.990616492</v>
       </c>
       <c r="D55" t="n">
-        <v>9.24537745770024</v>
+        <v>3.60328493439898</v>
       </c>
     </row>
     <row r="56">
@@ -1898,13 +1898,13 @@
         <v>58</v>
       </c>
       <c r="B56" t="n">
-        <v>115</v>
+        <v>40</v>
       </c>
       <c r="C56" t="n">
-        <v>3036.04089538172</v>
+        <v>4156.16627844848</v>
       </c>
       <c r="D56" t="n">
-        <v>1.70427678071539</v>
+        <v>3.63858041113563</v>
       </c>
     </row>
     <row r="57">
@@ -1912,13 +1912,13 @@
         <v>59</v>
       </c>
       <c r="B57" t="n">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="C57" t="n">
-        <v>3084.39497783243</v>
+        <v>4642.11002994355</v>
       </c>
       <c r="D57" t="n">
-        <v>1.14288406939576</v>
+        <v>8.81037181085913</v>
       </c>
     </row>
     <row r="58">
@@ -1926,13 +1926,13 @@
         <v>60</v>
       </c>
       <c r="B58" t="n">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="C58" t="n">
-        <v>5496.8987319508</v>
+        <v>2980.63285051659</v>
       </c>
       <c r="D58" t="n">
-        <v>17.1670765190264</v>
+        <v>0.972807386731715</v>
       </c>
     </row>
     <row r="59">
@@ -1940,13 +1940,13 @@
         <v>61</v>
       </c>
       <c r="B59" t="n">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="C59" t="n">
-        <v>3390.3652103801</v>
+        <v>3616.3988331907</v>
       </c>
       <c r="D59" t="n">
-        <v>1.79607590264204</v>
+        <v>1.51994653971828</v>
       </c>
     </row>
     <row r="60">
@@ -1954,13 +1954,13 @@
         <v>62</v>
       </c>
       <c r="B60" t="n">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="C60" t="n">
-        <v>3910.78726289188</v>
+        <v>4556.09295961966</v>
       </c>
       <c r="D60" t="n">
-        <v>2.02143415332402</v>
+        <v>13.2073079305984</v>
       </c>
     </row>
     <row r="61">
@@ -1968,13 +1968,13 @@
         <v>63</v>
       </c>
       <c r="B61" t="n">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="C61" t="n">
-        <v>3328.13645394732</v>
+        <v>3204.23800305475</v>
       </c>
       <c r="D61" t="n">
-        <v>2.31789010266123</v>
+        <v>0.852638399549896</v>
       </c>
     </row>
     <row r="62">
@@ -1982,13 +1982,13 @@
         <v>64</v>
       </c>
       <c r="B62" t="n">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="C62" t="n">
-        <v>2444.79666586668</v>
+        <v>4783.82758357453</v>
       </c>
       <c r="D62" t="n">
-        <v>0.221641573096217</v>
+        <v>13.9215063065109</v>
       </c>
     </row>
     <row r="63">
@@ -1996,13 +1996,13 @@
         <v>65</v>
       </c>
       <c r="B63" t="n">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="C63" t="n">
-        <v>3045.78576354999</v>
+        <v>3064.35153548943</v>
       </c>
       <c r="D63" t="n">
-        <v>0.747372209897555</v>
+        <v>1.7778810979994</v>
       </c>
     </row>
     <row r="64">
@@ -2010,13 +2010,13 @@
         <v>66</v>
       </c>
       <c r="B64" t="n">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="C64" t="n">
-        <v>3293.75703550508</v>
+        <v>4552.09637551101</v>
       </c>
       <c r="D64" t="n">
-        <v>2.56654022458493</v>
+        <v>10.6565773481751</v>
       </c>
     </row>
     <row r="65">
@@ -2024,13 +2024,13 @@
         <v>67</v>
       </c>
       <c r="B65" t="n">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="C65" t="n">
-        <v>3088.54707047351</v>
+        <v>3193.39281842028</v>
       </c>
       <c r="D65" t="n">
-        <v>0.572113968301334</v>
+        <v>1.16599594164048</v>
       </c>
     </row>
     <row r="66">
@@ -2038,13 +2038,13 @@
         <v>68</v>
       </c>
       <c r="B66" t="n">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="C66" t="n">
-        <v>3613.19497027463</v>
+        <v>3545.64807428588</v>
       </c>
       <c r="D66" t="n">
-        <v>4.40223252988339</v>
+        <v>5.82420744803417</v>
       </c>
     </row>
     <row r="67">
@@ -2052,13 +2052,13 @@
         <v>69</v>
       </c>
       <c r="B67" t="n">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="C67" t="n">
-        <v>2787.60295984838</v>
+        <v>3757.48473766869</v>
       </c>
       <c r="D67" t="n">
-        <v>0.876223902598408</v>
+        <v>3.54652448603686</v>
       </c>
     </row>
     <row r="68">
@@ -2066,13 +2066,13 @@
         <v>70</v>
       </c>
       <c r="B68" t="n">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="C68" t="n">
-        <v>4364.49951957552</v>
+        <v>3408.22869564158</v>
       </c>
       <c r="D68" t="n">
-        <v>10.8701745053189</v>
+        <v>2.18743602798327</v>
       </c>
     </row>
     <row r="69">
@@ -2080,13 +2080,13 @@
         <v>71</v>
       </c>
       <c r="B69" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="C69" t="n">
-        <v>2757.13761314678</v>
+        <v>3283.03896199533</v>
       </c>
       <c r="D69" t="n">
-        <v>0.411702721631037</v>
+        <v>3.02744171005733</v>
       </c>
     </row>
     <row r="70">
@@ -2094,13 +2094,13 @@
         <v>72</v>
       </c>
       <c r="B70" t="n">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="C70" t="n">
-        <v>3289.5497472461</v>
+        <v>3384.82536908841</v>
       </c>
       <c r="D70" t="n">
-        <v>2.94440600367906</v>
+        <v>1.53920781987763</v>
       </c>
     </row>
     <row r="71">
@@ -2108,13 +2108,13 @@
         <v>73</v>
       </c>
       <c r="B71" t="n">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="C71" t="n">
-        <v>5630.72823621693</v>
+        <v>5826.24221553397</v>
       </c>
       <c r="D71" t="n">
-        <v>22.5016580392487</v>
+        <v>25.3963479716198</v>
       </c>
     </row>
     <row r="72">
@@ -2122,13 +2122,13 @@
         <v>74</v>
       </c>
       <c r="B72" t="n">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="C72" t="n">
-        <v>3968.68377655365</v>
+        <v>4685.5917855214</v>
       </c>
       <c r="D72" t="n">
-        <v>5.54027066074694</v>
+        <v>12.4702829002526</v>
       </c>
     </row>
     <row r="73">
@@ -2136,13 +2136,13 @@
         <v>75</v>
       </c>
       <c r="B73" t="n">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="C73" t="n">
-        <v>3274.96152364031</v>
+        <v>3700.13584780665</v>
       </c>
       <c r="D73" t="n">
-        <v>1.71076935201614</v>
+        <v>3.65306603791917</v>
       </c>
     </row>
     <row r="74">
@@ -2150,13 +2150,13 @@
         <v>76</v>
       </c>
       <c r="B74" t="n">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="C74" t="n">
-        <v>2996.26820755695</v>
+        <v>6446.86111887607</v>
       </c>
       <c r="D74" t="n">
-        <v>0.525082510433803</v>
+        <v>33.4985871636472</v>
       </c>
     </row>
     <row r="75">
@@ -2164,13 +2164,13 @@
         <v>77</v>
       </c>
       <c r="B75" t="n">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="C75" t="n">
-        <v>2756.25396027117</v>
+        <v>3740.89803888758</v>
       </c>
       <c r="D75" t="n">
-        <v>0.786011770525115</v>
+        <v>2.99593947212389</v>
       </c>
     </row>
     <row r="76">
@@ -2178,13 +2178,13 @@
         <v>78</v>
       </c>
       <c r="B76" t="n">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C76" t="n">
-        <v>2816.57152372168</v>
+        <v>3390.15777294772</v>
       </c>
       <c r="D76" t="n">
-        <v>1.10429344593614</v>
+        <v>3.82851695981947</v>
       </c>
     </row>
     <row r="77">
@@ -2192,13 +2192,13 @@
         <v>79</v>
       </c>
       <c r="B77" t="n">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="C77" t="n">
-        <v>3200.76182653655</v>
+        <v>3353.59167340846</v>
       </c>
       <c r="D77" t="n">
-        <v>2.9717381579054</v>
+        <v>3.85141945027934</v>
       </c>
     </row>
     <row r="78">
@@ -2206,13 +2206,13 @@
         <v>80</v>
       </c>
       <c r="B78" t="n">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="C78" t="n">
-        <v>4309.12503694707</v>
+        <v>3751.32786956956</v>
       </c>
       <c r="D78" t="n">
-        <v>6.68164277436634</v>
+        <v>3.86741171257304</v>
       </c>
     </row>
     <row r="79">
@@ -2220,13 +2220,13 @@
         <v>81</v>
       </c>
       <c r="B79" t="n">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C79" t="n">
-        <v>3678.51249977456</v>
+        <v>3485.88562489586</v>
       </c>
       <c r="D79" t="n">
-        <v>2.15658089675433</v>
+        <v>2.78200630175927</v>
       </c>
     </row>
     <row r="80">
@@ -2234,13 +2234,13 @@
         <v>82</v>
       </c>
       <c r="B80" t="n">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="C80" t="n">
-        <v>2937.07171336866</v>
+        <v>3540.92319783643</v>
       </c>
       <c r="D80" t="n">
-        <v>0.480050998761142</v>
+        <v>4.11218409271066</v>
       </c>
     </row>
     <row r="81">
@@ -2248,13 +2248,13 @@
         <v>83</v>
       </c>
       <c r="B81" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="C81" t="n">
-        <v>3387.69946261233</v>
+        <v>3467.52688204127</v>
       </c>
       <c r="D81" t="n">
-        <v>1.7937382532279</v>
+        <v>3.06528138086448</v>
       </c>
     </row>
     <row r="82">
@@ -2262,13 +2262,13 @@
         <v>84</v>
       </c>
       <c r="B82" t="n">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="C82" t="n">
-        <v>2544.29324809594</v>
+        <v>3862.67728170754</v>
       </c>
       <c r="D82" t="n">
-        <v>0.390089305296207</v>
+        <v>1.33396734010856</v>
       </c>
     </row>
     <row r="83">
@@ -2276,13 +2276,13 @@
         <v>85</v>
       </c>
       <c r="B83" t="n">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="C83" t="n">
-        <v>3251.47557502277</v>
+        <v>2910.27787942176</v>
       </c>
       <c r="D83" t="n">
-        <v>2.23764752444747</v>
+        <v>0.714627619952965</v>
       </c>
     </row>
     <row r="84">
@@ -2290,13 +2290,13 @@
         <v>86</v>
       </c>
       <c r="B84" t="n">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C84" t="n">
-        <v>3135.85679789033</v>
+        <v>4509.30941784884</v>
       </c>
       <c r="D84" t="n">
-        <v>1.28653684810963</v>
+        <v>10.6836705540201</v>
       </c>
     </row>
     <row r="85">
@@ -2304,13 +2304,13 @@
         <v>87</v>
       </c>
       <c r="B85" t="n">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C85" t="n">
-        <v>2947.09181579858</v>
+        <v>3247.89940573318</v>
       </c>
       <c r="D85" t="n">
-        <v>0.856343168056541</v>
+        <v>1.74219271385941</v>
       </c>
     </row>
     <row r="86">
@@ -2318,13 +2318,13 @@
         <v>88</v>
       </c>
       <c r="B86" t="n">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="C86" t="n">
-        <v>3154.18261064384</v>
+        <v>3110.78721983441</v>
       </c>
       <c r="D86" t="n">
-        <v>0.82601516222106</v>
+        <v>0.656882545493585</v>
       </c>
     </row>
     <row r="87">
@@ -2332,13 +2332,13 @@
         <v>89</v>
       </c>
       <c r="B87" t="n">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="C87" t="n">
-        <v>4054.46778798667</v>
+        <v>3302.234475852</v>
       </c>
       <c r="D87" t="n">
-        <v>4.25370826768896</v>
+        <v>2.60007130517321</v>
       </c>
     </row>
     <row r="88">
@@ -2346,13 +2346,13 @@
         <v>90</v>
       </c>
       <c r="B88" t="n">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="C88" t="n">
-        <v>2843.09232480762</v>
+        <v>2961.65692435959</v>
       </c>
       <c r="D88" t="n">
-        <v>0.834168124762045</v>
+        <v>1.52455156640556</v>
       </c>
     </row>
     <row r="89">
@@ -2360,13 +2360,13 @@
         <v>91</v>
       </c>
       <c r="B89" t="n">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="C89" t="n">
-        <v>3664.03771457</v>
+        <v>3179.05030842369</v>
       </c>
       <c r="D89" t="n">
-        <v>3.65288896015402</v>
+        <v>1.01029883417055</v>
       </c>
     </row>
     <row r="90">
@@ -2374,13 +2374,13 @@
         <v>92</v>
       </c>
       <c r="B90" t="n">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="C90" t="n">
-        <v>4077.20657669012</v>
+        <v>4347.55220553201</v>
       </c>
       <c r="D90" t="n">
-        <v>8.50609270693681</v>
+        <v>9.9114458540423</v>
       </c>
     </row>
     <row r="91">
@@ -2388,13 +2388,13 @@
         <v>93</v>
       </c>
       <c r="B91" t="n">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="C91" t="n">
-        <v>3377.18890766852</v>
+        <v>3225.76048158019</v>
       </c>
       <c r="D91" t="n">
-        <v>2.50232707434188</v>
+        <v>2.45831437513115</v>
       </c>
     </row>
     <row r="92">
@@ -2402,13 +2402,13 @@
         <v>94</v>
       </c>
       <c r="B92" t="n">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="C92" t="n">
-        <v>3523.34092106243</v>
+        <v>3371.81979672832</v>
       </c>
       <c r="D92" t="n">
-        <v>3.2439681979867</v>
+        <v>1.25391390594611</v>
       </c>
     </row>
     <row r="93">
@@ -2416,13 +2416,13 @@
         <v>95</v>
       </c>
       <c r="B93" t="n">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="C93" t="n">
-        <v>3239.05231864487</v>
+        <v>3715.74027172312</v>
       </c>
       <c r="D93" t="n">
-        <v>2.33540545026483</v>
+        <v>3.17117043172797</v>
       </c>
     </row>
     <row r="94">
@@ -2430,13 +2430,13 @@
         <v>96</v>
       </c>
       <c r="B94" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="C94" t="n">
-        <v>3248.05556792265</v>
+        <v>3452.03825588551</v>
       </c>
       <c r="D94" t="n">
-        <v>1.98166202348586</v>
+        <v>2.17662319374661</v>
       </c>
     </row>
     <row r="95">
@@ -2444,13 +2444,13 @@
         <v>97</v>
       </c>
       <c r="B95" t="n">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C95" t="n">
-        <v>3380.72721866335</v>
+        <v>3075.10660892655</v>
       </c>
       <c r="D95" t="n">
-        <v>4.29731826034926</v>
+        <v>0.801358949074236</v>
       </c>
     </row>
     <row r="96">
@@ -2458,13 +2458,13 @@
         <v>98</v>
       </c>
       <c r="B96" t="n">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C96" t="n">
-        <v>4665.67652043227</v>
+        <v>3322.26210536999</v>
       </c>
       <c r="D96" t="n">
-        <v>12.1163919185378</v>
+        <v>1.72766784385327</v>
       </c>
     </row>
     <row r="97">
@@ -2472,13 +2472,13 @@
         <v>99</v>
       </c>
       <c r="B97" t="n">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C97" t="n">
-        <v>4665.32277660812</v>
+        <v>3413.72298875609</v>
       </c>
       <c r="D97" t="n">
-        <v>14.8114721056174</v>
+        <v>2.43875717224732</v>
       </c>
     </row>
     <row r="98">
@@ -2486,13 +2486,13 @@
         <v>100</v>
       </c>
       <c r="B98" t="n">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C98" t="n">
-        <v>2913.67107028109</v>
+        <v>3192.25644842872</v>
       </c>
       <c r="D98" t="n">
-        <v>0.751294232070751</v>
+        <v>1.18223164588935</v>
       </c>
     </row>
     <row r="99">
@@ -2500,13 +2500,13 @@
         <v>101</v>
       </c>
       <c r="B99" t="n">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C99" t="n">
-        <v>3588.11567214187</v>
+        <v>3394.86469093483</v>
       </c>
       <c r="D99" t="n">
-        <v>5.60175464213797</v>
+        <v>1.80123847492849</v>
       </c>
     </row>
     <row r="100">
@@ -2514,13 +2514,13 @@
         <v>102</v>
       </c>
       <c r="B100" t="n">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C100" t="n">
-        <v>4598.20358328669</v>
+        <v>2561.74957323072</v>
       </c>
       <c r="D100" t="n">
-        <v>6.94316855661489</v>
+        <v>0.549041449081617</v>
       </c>
     </row>
     <row r="101">
@@ -2528,13 +2528,13 @@
         <v>103</v>
       </c>
       <c r="B101" t="n">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="C101" t="n">
-        <v>2833.69429023959</v>
+        <v>3510.95333445326</v>
       </c>
       <c r="D101" t="n">
-        <v>0.516212928687941</v>
+        <v>1.64045508467018</v>
       </c>
     </row>
     <row r="102">
@@ -2542,13 +2542,13 @@
         <v>104</v>
       </c>
       <c r="B102" t="n">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="C102" t="n">
-        <v>3446.34448003523</v>
+        <v>3652.69475489966</v>
       </c>
       <c r="D102" t="n">
-        <v>2.78693304066847</v>
+        <v>3.75811055183705</v>
       </c>
     </row>
     <row r="103">
@@ -2556,13 +2556,13 @@
         <v>105</v>
       </c>
       <c r="B103" t="n">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="C103" t="n">
-        <v>3658.4967000813</v>
+        <v>3421.42874538261</v>
       </c>
       <c r="D103" t="n">
-        <v>3.85561605018679</v>
+        <v>2.46634844664018</v>
       </c>
     </row>
     <row r="104">
@@ -2570,13 +2570,13 @@
         <v>106</v>
       </c>
       <c r="B104" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C104" t="n">
-        <v>3569.13692637526</v>
+        <v>2699.22500706868</v>
       </c>
       <c r="D104" t="n">
-        <v>2.96430250609825</v>
+        <v>0.250653248559874</v>
       </c>
     </row>
     <row r="105">
@@ -2584,13 +2584,13 @@
         <v>107</v>
       </c>
       <c r="B105" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="C105" t="n">
-        <v>2798.08798028176</v>
+        <v>2991.60503200199</v>
       </c>
       <c r="D105" t="n">
-        <v>0.334088233366857</v>
+        <v>0.861765226733206</v>
       </c>
     </row>
     <row r="106">
@@ -2598,13 +2598,13 @@
         <v>108</v>
       </c>
       <c r="B106" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C106" t="n">
-        <v>2992.51311866774</v>
+        <v>3368.81993520416</v>
       </c>
       <c r="D106" t="n">
-        <v>1.12786330315929</v>
+        <v>3.74559254143284</v>
       </c>
     </row>
     <row r="107">
@@ -2612,13 +2612,13 @@
         <v>109</v>
       </c>
       <c r="B107" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C107" t="n">
-        <v>3183.62847804083</v>
+        <v>3987.13090837107</v>
       </c>
       <c r="D107" t="n">
-        <v>1.11101761014523</v>
+        <v>4.00050703671923</v>
       </c>
     </row>
     <row r="108">
@@ -2626,13 +2626,13 @@
         <v>110</v>
       </c>
       <c r="B108" t="n">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C108" t="n">
-        <v>3065.90870823205</v>
+        <v>3437.6272462685</v>
       </c>
       <c r="D108" t="n">
-        <v>0.587100790958724</v>
+        <v>1.09342390527294</v>
       </c>
     </row>
     <row r="109">
@@ -2640,13 +2640,13 @@
         <v>111</v>
       </c>
       <c r="B109" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C109" t="n">
-        <v>3209.63337418268</v>
+        <v>2851.45883058073</v>
       </c>
       <c r="D109" t="n">
-        <v>1.54379953926915</v>
+        <v>0.74433502955808</v>
       </c>
     </row>
     <row r="110">
@@ -2654,13 +2654,13 @@
         <v>112</v>
       </c>
       <c r="B110" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C110" t="n">
-        <v>4260.10038372158</v>
+        <v>4019.79492862492</v>
       </c>
       <c r="D110" t="n">
-        <v>9.19640267618073</v>
+        <v>7.42791494986976</v>
       </c>
     </row>
     <row r="111">
@@ -2668,13 +2668,13 @@
         <v>113</v>
       </c>
       <c r="B111" t="n">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C111" t="n">
-        <v>3060.74951399487</v>
+        <v>3015.09814350346</v>
       </c>
       <c r="D111" t="n">
-        <v>1.00375323267049</v>
+        <v>0.794687013756558</v>
       </c>
     </row>
     <row r="112">
@@ -2682,13 +2682,13 @@
         <v>114</v>
       </c>
       <c r="B112" t="n">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C112" t="n">
-        <v>3493.43007674301</v>
+        <v>2906.98877225146</v>
       </c>
       <c r="D112" t="n">
-        <v>2.04801009895051</v>
+        <v>0.959430594297519</v>
       </c>
     </row>
     <row r="113">
@@ -2696,13 +2696,13 @@
         <v>115</v>
       </c>
       <c r="B113" t="n">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C113" t="n">
-        <v>3855.6268368622</v>
+        <v>3086.13584625402</v>
       </c>
       <c r="D113" t="n">
-        <v>4.45836824896707</v>
+        <v>0.899914887199268</v>
       </c>
     </row>
     <row r="114">
@@ -2710,13 +2710,13 @@
         <v>116</v>
       </c>
       <c r="B114" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C114" t="n">
-        <v>3139.04380105352</v>
+        <v>3536.98315917745</v>
       </c>
       <c r="D114" t="n">
-        <v>2.09574898685331</v>
+        <v>2.54306223308379</v>
       </c>
     </row>
     <row r="115">
@@ -2724,13 +2724,13 @@
         <v>117</v>
       </c>
       <c r="B115" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C115" t="n">
-        <v>3400.72104258865</v>
+        <v>3956.46237082866</v>
       </c>
       <c r="D115" t="n">
-        <v>2.25172780703249</v>
+        <v>2.0151947399664</v>
       </c>
     </row>
     <row r="116">
@@ -2738,13 +2738,13 @@
         <v>118</v>
       </c>
       <c r="B116" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C116" t="n">
-        <v>2806.98693401596</v>
+        <v>2893.35870063131</v>
       </c>
       <c r="D116" t="n">
-        <v>0.778675856779722</v>
+        <v>0.876437237110973</v>
       </c>
     </row>
     <row r="117">
@@ -2752,13 +2752,13 @@
         <v>119</v>
       </c>
       <c r="B117" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C117" t="n">
-        <v>3785.70022670402</v>
+        <v>4134.31796672208</v>
       </c>
       <c r="D117" t="n">
-        <v>0.899013775816046</v>
+        <v>5.7811670191605</v>
       </c>
     </row>
     <row r="118">
@@ -2766,13 +2766,13 @@
         <v>120</v>
       </c>
       <c r="B118" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C118" t="n">
-        <v>3049.58828148502</v>
+        <v>2867.62502778343</v>
       </c>
       <c r="D118" t="n">
-        <v>1.1947518770792</v>
+        <v>0.434079133496877</v>
       </c>
     </row>
     <row r="119">
@@ -2780,13 +2780,13 @@
         <v>121</v>
       </c>
       <c r="B119" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C119" t="n">
-        <v>3090.40727914168</v>
+        <v>2836.29125608963</v>
       </c>
       <c r="D119" t="n">
-        <v>1.73496528775064</v>
+        <v>0.497711354688689</v>
       </c>
     </row>
     <row r="120">
@@ -2794,13 +2794,13 @@
         <v>122</v>
       </c>
       <c r="B120" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C120" t="n">
-        <v>3515.54493871749</v>
+        <v>3001.82230910973</v>
       </c>
       <c r="D120" t="n">
-        <v>2.29233171384196</v>
+        <v>1.18840936529828</v>
       </c>
     </row>
     <row r="121">
@@ -2808,13 +2808,13 @@
         <v>123</v>
       </c>
       <c r="B121" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C121" t="n">
-        <v>2624.67422118277</v>
+        <v>3115.26245686301</v>
       </c>
       <c r="D121" t="n">
-        <v>0.400711195956094</v>
+        <v>1.51226259253919</v>
       </c>
     </row>
     <row r="122">
@@ -2822,13 +2822,13 @@
         <v>124</v>
       </c>
       <c r="B122" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C122" t="n">
-        <v>2848.03977408247</v>
+        <v>2807.87519673727</v>
       </c>
       <c r="D122" t="n">
-        <v>0.548361807575912</v>
+        <v>0.266555210143319</v>
       </c>
     </row>
     <row r="123">
@@ -2836,13 +2836,13 @@
         <v>125</v>
       </c>
       <c r="B123" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C123" t="n">
-        <v>3643.53668205423</v>
+        <v>3149.99057621059</v>
       </c>
       <c r="D123" t="n">
-        <v>3.00967629839006</v>
+        <v>2.56539126209992</v>
       </c>
     </row>
     <row r="124">
@@ -2850,13 +2850,13 @@
         <v>126</v>
       </c>
       <c r="B124" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C124" t="n">
-        <v>3460.87131217853</v>
+        <v>2869.61163993744</v>
       </c>
       <c r="D124" t="n">
-        <v>4.16515610727121</v>
+        <v>0.841659729274858</v>
       </c>
     </row>
     <row r="125">
@@ -2864,13 +2864,13 @@
         <v>127</v>
       </c>
       <c r="B125" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C125" t="n">
-        <v>3677.63453206402</v>
+        <v>3125.70495252585</v>
       </c>
       <c r="D125" t="n">
-        <v>1.88628427035913</v>
+        <v>0.549320735113867</v>
       </c>
     </row>
     <row r="126">
@@ -2878,13 +2878,13 @@
         <v>128</v>
       </c>
       <c r="B126" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C126" t="n">
-        <v>3017.36096318068</v>
+        <v>2934.30935950536</v>
       </c>
       <c r="D126" t="n">
-        <v>1.05299935310559</v>
+        <v>0.398846512630432</v>
       </c>
     </row>
     <row r="127">
@@ -2892,13 +2892,13 @@
         <v>129</v>
       </c>
       <c r="B127" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C127" t="n">
-        <v>2922.5685336197</v>
+        <v>3067.62828692864</v>
       </c>
       <c r="D127" t="n">
-        <v>0.717624466284958</v>
+        <v>0.661530473702382</v>
       </c>
     </row>
     <row r="128">
@@ -2906,13 +2906,13 @@
         <v>130</v>
       </c>
       <c r="B128" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C128" t="n">
-        <v>5012.72893420882</v>
+        <v>3256.84303614999</v>
       </c>
       <c r="D128" t="n">
-        <v>10.6620118997573</v>
+        <v>0.91983394126757</v>
       </c>
     </row>
     <row r="129">
@@ -2920,13 +2920,13 @@
         <v>131</v>
       </c>
       <c r="B129" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C129" t="n">
-        <v>2932.56967320477</v>
+        <v>3091.25950317635</v>
       </c>
       <c r="D129" t="n">
-        <v>0.885037716029058</v>
+        <v>1.23210357578809</v>
       </c>
     </row>
     <row r="130">
@@ -2934,13 +2934,13 @@
         <v>132</v>
       </c>
       <c r="B130" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C130" t="n">
-        <v>4441.13090990281</v>
+        <v>2656.67839203223</v>
       </c>
       <c r="D130" t="n">
-        <v>6.30955498233127</v>
+        <v>0.410236475433545</v>
       </c>
     </row>
     <row r="131">
@@ -2948,13 +2948,13 @@
         <v>133</v>
       </c>
       <c r="B131" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C131" t="n">
-        <v>4194.0931270249</v>
+        <v>2868.9977803918</v>
       </c>
       <c r="D131" t="n">
-        <v>10.6524279648874</v>
+        <v>0.801196883432713</v>
       </c>
     </row>
     <row r="132">
@@ -2962,13 +2962,13 @@
         <v>134</v>
       </c>
       <c r="B132" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C132" t="n">
-        <v>2837.47860268479</v>
+        <v>2760.76822150634</v>
       </c>
       <c r="D132" t="n">
-        <v>0.623350648663011</v>
+        <v>0.457777733318229</v>
       </c>
     </row>
     <row r="133">
@@ -2976,13 +2976,13 @@
         <v>135</v>
       </c>
       <c r="B133" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C133" t="n">
-        <v>2637.54403389533</v>
+        <v>2993.01795198052</v>
       </c>
       <c r="D133" t="n">
-        <v>0.190139258119709</v>
+        <v>1.0915080102031</v>
       </c>
     </row>
     <row r="134">
@@ -2990,13 +2990,13 @@
         <v>136</v>
       </c>
       <c r="B134" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C134" t="n">
-        <v>4085.00781229252</v>
+        <v>2823.82448517509</v>
       </c>
       <c r="D134" t="n">
-        <v>5.61802033026894</v>
+        <v>0.777555650802963</v>
       </c>
     </row>
     <row r="135">
@@ -3004,13 +3004,13 @@
         <v>137</v>
       </c>
       <c r="B135" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C135" t="n">
-        <v>3141.87480006401</v>
+        <v>2242.10063957072</v>
       </c>
       <c r="D135" t="n">
-        <v>1.88228621215908</v>
+        <v>0.0624383587065277</v>
       </c>
     </row>
     <row r="136">
@@ -3018,13 +3018,13 @@
         <v>138</v>
       </c>
       <c r="B136" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C136" t="n">
-        <v>2947.69643823869</v>
+        <v>4537.48411672469</v>
       </c>
       <c r="D136" t="n">
-        <v>1.26182530445684</v>
+        <v>12.7956280428587</v>
       </c>
     </row>
     <row r="137">
@@ -3032,13 +3032,13 @@
         <v>139</v>
       </c>
       <c r="B137" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C137" t="n">
-        <v>3648.20728542027</v>
+        <v>3127.18035557595</v>
       </c>
       <c r="D137" t="n">
-        <v>2.94322071057358</v>
+        <v>1.66535153291556</v>
       </c>
     </row>
     <row r="138">
@@ -3046,13 +3046,13 @@
         <v>140</v>
       </c>
       <c r="B138" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C138" t="n">
-        <v>3849.31245734927</v>
+        <v>2947.96182634662</v>
       </c>
       <c r="D138" t="n">
-        <v>4.19010838501153</v>
+        <v>0.545960180911908</v>
       </c>
     </row>
     <row r="139">
@@ -3060,13 +3060,13 @@
         <v>141</v>
       </c>
       <c r="B139" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C139" t="n">
-        <v>2690.38185334429</v>
+        <v>3500.74253772902</v>
       </c>
       <c r="D139" t="n">
-        <v>0.204083911282379</v>
+        <v>1.44916529600383</v>
       </c>
     </row>
     <row r="140">
@@ -3074,13 +3074,13 @@
         <v>142</v>
       </c>
       <c r="B140" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C140" t="n">
-        <v>2898.33911076373</v>
+        <v>2938.22943781662</v>
       </c>
       <c r="D140" t="n">
-        <v>0.312865576873809</v>
+        <v>0.891656598874916</v>
       </c>
     </row>
     <row r="141">
@@ -3088,13 +3088,13 @@
         <v>143</v>
       </c>
       <c r="B141" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C141" t="n">
-        <v>2866.57794351191</v>
+        <v>3427.57911042226</v>
       </c>
       <c r="D141" t="n">
-        <v>0.988073775673919</v>
+        <v>2.7724388926686</v>
       </c>
     </row>
     <row r="142">
@@ -3102,13 +3102,13 @@
         <v>144</v>
       </c>
       <c r="B142" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C142" t="n">
-        <v>2564.41799282679</v>
+        <v>4242.56338347022</v>
       </c>
       <c r="D142" t="n">
-        <v>0.227940700133442</v>
+        <v>5.16973925675336</v>
       </c>
     </row>
     <row r="143">
@@ -3116,13 +3116,13 @@
         <v>145</v>
       </c>
       <c r="B143" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C143" t="n">
-        <v>4550.70444999038</v>
+        <v>3431.23601498218</v>
       </c>
       <c r="D143" t="n">
-        <v>12.9330877822937</v>
+        <v>3.0739736995299</v>
       </c>
     </row>
     <row r="144">
@@ -3130,13 +3130,13 @@
         <v>146</v>
       </c>
       <c r="B144" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C144" t="n">
-        <v>2796.03009471184</v>
+        <v>3221.40307747046</v>
       </c>
       <c r="D144" t="n">
-        <v>0.506155675634851</v>
+        <v>1.29645831376106</v>
       </c>
     </row>
     <row r="145">
@@ -3144,13 +3144,13 @@
         <v>147</v>
       </c>
       <c r="B145" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C145" t="n">
-        <v>4210.50488501519</v>
+        <v>2987.96545911165</v>
       </c>
       <c r="D145" t="n">
-        <v>4.80645047719756</v>
+        <v>0.888452981670354</v>
       </c>
     </row>
     <row r="146">
@@ -3158,13 +3158,13 @@
         <v>148</v>
       </c>
       <c r="B146" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C146" t="n">
-        <v>3718.15541515812</v>
+        <v>2877.53469634451</v>
       </c>
       <c r="D146" t="n">
-        <v>2.13131265279009</v>
+        <v>0.742402178369658</v>
       </c>
     </row>
     <row r="147">
@@ -3172,13 +3172,13 @@
         <v>149</v>
       </c>
       <c r="B147" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C147" t="n">
-        <v>3379.9119249813</v>
+        <v>3502.54971690934</v>
       </c>
       <c r="D147" t="n">
-        <v>1.52873178773565</v>
+        <v>1.78384451850885</v>
       </c>
     </row>
     <row r="148">
@@ -3186,13 +3186,13 @@
         <v>150</v>
       </c>
       <c r="B148" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C148" t="n">
-        <v>3064.22998186597</v>
+        <v>3304.14190394423</v>
       </c>
       <c r="D148" t="n">
-        <v>0.524388950381205</v>
+        <v>1.35855586005914</v>
       </c>
     </row>
     <row r="149">
@@ -3200,13 +3200,13 @@
         <v>151</v>
       </c>
       <c r="B149" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C149" t="n">
-        <v>5359.09886944658</v>
+        <v>2580.9688373742</v>
       </c>
       <c r="D149" t="n">
-        <v>19.7465544421831</v>
+        <v>0.209947736225944</v>
       </c>
     </row>
     <row r="150">
@@ -3214,13 +3214,13 @@
         <v>152</v>
       </c>
       <c r="B150" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C150" t="n">
-        <v>3314.99118430485</v>
+        <v>3240.36549845847</v>
       </c>
       <c r="D150" t="n">
-        <v>3.51775015542607</v>
+        <v>1.18124966182997</v>
       </c>
     </row>
     <row r="151">
@@ -3228,13 +3228,13 @@
         <v>153</v>
       </c>
       <c r="B151" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C151" t="n">
-        <v>2873.19811305172</v>
+        <v>2933.78986783676</v>
       </c>
       <c r="D151" t="n">
-        <v>0.407804121347743</v>
+        <v>1.12059376194029</v>
       </c>
     </row>
     <row r="152">
@@ -3242,13 +3242,13 @@
         <v>154</v>
       </c>
       <c r="B152" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C152" t="n">
-        <v>3633.61408173882</v>
+        <v>3051.63776331241</v>
       </c>
       <c r="D152" t="n">
-        <v>4.11737415753678</v>
+        <v>0.475771399671729</v>
       </c>
     </row>
     <row r="153">
@@ -3256,13 +3256,13 @@
         <v>155</v>
       </c>
       <c r="B153" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C153" t="n">
-        <v>2187.71334822114</v>
+        <v>3528.56161603138</v>
       </c>
       <c r="D153" t="n">
-        <v>0.0295473160551854</v>
+        <v>3.10890018489251</v>
       </c>
     </row>
     <row r="154">
@@ -3270,13 +3270,13 @@
         <v>156</v>
       </c>
       <c r="B154" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C154" t="n">
-        <v>3381.74560212927</v>
+        <v>3231.21916577657</v>
       </c>
       <c r="D154" t="n">
-        <v>2.54679630577451</v>
+        <v>1.49010993536367</v>
       </c>
     </row>
     <row r="155">
@@ -3284,13 +3284,13 @@
         <v>157</v>
       </c>
       <c r="B155" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C155" t="n">
-        <v>2918.61443781987</v>
+        <v>3183.90029757339</v>
       </c>
       <c r="D155" t="n">
-        <v>1.36243649853178</v>
+        <v>1.54857755191271</v>
       </c>
     </row>
     <row r="156">
@@ -3298,13 +3298,13 @@
         <v>158</v>
       </c>
       <c r="B156" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C156" t="n">
-        <v>4614.92566462099</v>
+        <v>3072.95331815727</v>
       </c>
       <c r="D156" t="n">
-        <v>10.0976877197151</v>
+        <v>0.975207648131191</v>
       </c>
     </row>
     <row r="157">
@@ -3312,13 +3312,13 @@
         <v>159</v>
       </c>
       <c r="B157" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C157" t="n">
-        <v>3010.44205680092</v>
+        <v>4075.28765329406</v>
       </c>
       <c r="D157" t="n">
-        <v>0.78650391429923</v>
+        <v>5.80030625626329</v>
       </c>
     </row>
     <row r="158">
@@ -3326,13 +3326,13 @@
         <v>160</v>
       </c>
       <c r="B158" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C158" t="n">
-        <v>3192.57402466079</v>
+        <v>3336.53242281071</v>
       </c>
       <c r="D158" t="n">
-        <v>1.18427371789275</v>
+        <v>2.21341238290111</v>
       </c>
     </row>
     <row r="159">
@@ -3340,13 +3340,13 @@
         <v>161</v>
       </c>
       <c r="B159" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C159" t="n">
-        <v>2506.71619819692</v>
+        <v>3309.2283908827</v>
       </c>
       <c r="D159" t="n">
-        <v>0.086227183933374</v>
+        <v>1.28815377184045</v>
       </c>
     </row>
     <row r="160">
@@ -3354,13 +3354,13 @@
         <v>162</v>
       </c>
       <c r="B160" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C160" t="n">
-        <v>4473.57802020426</v>
+        <v>3034.21013314248</v>
       </c>
       <c r="D160" t="n">
-        <v>12.0716023735464</v>
+        <v>0.353927907021976</v>
       </c>
     </row>
     <row r="161">
@@ -3368,13 +3368,13 @@
         <v>163</v>
       </c>
       <c r="B161" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C161" t="n">
-        <v>2909.82807694452</v>
+        <v>2749.94847501953</v>
       </c>
       <c r="D161" t="n">
-        <v>0.510176140151951</v>
+        <v>0.840473258688969</v>
       </c>
     </row>
     <row r="162">
@@ -3382,13 +3382,13 @@
         <v>164</v>
       </c>
       <c r="B162" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C162" t="n">
-        <v>2570.171098576</v>
+        <v>2884.61463045483</v>
       </c>
       <c r="D162" t="n">
-        <v>0.484015970746946</v>
+        <v>1.11596978745273</v>
       </c>
     </row>
     <row r="163">
@@ -3396,13 +3396,13 @@
         <v>165</v>
       </c>
       <c r="B163" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C163" t="n">
-        <v>2996.7793475369</v>
+        <v>3782.74458113352</v>
       </c>
       <c r="D163" t="n">
-        <v>0.27682399944641</v>
+        <v>3.60612162101376</v>
       </c>
     </row>
     <row r="164">
@@ -3410,13 +3410,13 @@
         <v>166</v>
       </c>
       <c r="B164" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C164" t="n">
-        <v>3183.34983644321</v>
+        <v>2884.95817161936</v>
       </c>
       <c r="D164" t="n">
-        <v>0.694603267068373</v>
+        <v>0.478262492747531</v>
       </c>
     </row>
     <row r="165">
@@ -3424,13 +3424,13 @@
         <v>167</v>
       </c>
       <c r="B165" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C165" t="n">
-        <v>3532.30395410606</v>
+        <v>3004.07051643244</v>
       </c>
       <c r="D165" t="n">
-        <v>2.26518415396844</v>
+        <v>0.594802033248811</v>
       </c>
     </row>
     <row r="166">
@@ -3438,13 +3438,13 @@
         <v>168</v>
       </c>
       <c r="B166" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C166" t="n">
-        <v>3199.7832521033</v>
+        <v>3755.55748771954</v>
       </c>
       <c r="D166" t="n">
-        <v>1.8022107655267</v>
+        <v>4.23071385020553</v>
       </c>
     </row>
     <row r="167">
@@ -3452,13 +3452,13 @@
         <v>169</v>
       </c>
       <c r="B167" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C167" t="n">
-        <v>2962.39133963989</v>
+        <v>3646.76286304035</v>
       </c>
       <c r="D167" t="n">
-        <v>1.08834802545943</v>
+        <v>3.47935295182869</v>
       </c>
     </row>
     <row r="168">
@@ -3466,13 +3466,13 @@
         <v>170</v>
       </c>
       <c r="B168" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C168" t="n">
-        <v>2454.05684631884</v>
+        <v>3140.50380315736</v>
       </c>
       <c r="D168" t="n">
-        <v>0.347358223021346</v>
+        <v>1.29275502476662</v>
       </c>
     </row>
     <row r="169">
@@ -3480,13 +3480,13 @@
         <v>171</v>
       </c>
       <c r="B169" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C169" t="n">
-        <v>3439.03831790097</v>
+        <v>3526.82461600918</v>
       </c>
       <c r="D169" t="n">
-        <v>4.51408897710288</v>
+        <v>2.49269567454611</v>
       </c>
     </row>
     <row r="170">
@@ -3494,13 +3494,13 @@
         <v>172</v>
       </c>
       <c r="B170" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C170" t="n">
-        <v>4148.92601360473</v>
+        <v>2607.79764260693</v>
       </c>
       <c r="D170" t="n">
-        <v>6.38059114041747</v>
+        <v>0.21231566138223</v>
       </c>
     </row>
     <row r="171">
@@ -3508,13 +3508,13 @@
         <v>173</v>
       </c>
       <c r="B171" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C171" t="n">
-        <v>3037.00506269646</v>
+        <v>2902.59847482515</v>
       </c>
       <c r="D171" t="n">
-        <v>0.970469169096582</v>
+        <v>0.514150395054032</v>
       </c>
     </row>
     <row r="172">
@@ -3522,13 +3522,13 @@
         <v>174</v>
       </c>
       <c r="B172" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C172" t="n">
-        <v>3517.66957483151</v>
+        <v>2745.99715281803</v>
       </c>
       <c r="D172" t="n">
-        <v>1.76037997019632</v>
+        <v>0.750821679809753</v>
       </c>
     </row>
     <row r="173">
@@ -3536,13 +3536,13 @@
         <v>175</v>
       </c>
       <c r="B173" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C173" t="n">
-        <v>7552.53318571035</v>
+        <v>2632.8881039381</v>
       </c>
       <c r="D173" t="n">
-        <v>29.7673470896484</v>
+        <v>0.174682284516994</v>
       </c>
     </row>
     <row r="174">
@@ -3550,13 +3550,13 @@
         <v>176</v>
       </c>
       <c r="B174" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C174" t="n">
-        <v>3185.74845987753</v>
+        <v>4324.37009335145</v>
       </c>
       <c r="D174" t="n">
-        <v>2.55209357134388</v>
+        <v>12.6141824314871</v>
       </c>
     </row>
     <row r="175">
@@ -3564,13 +3564,13 @@
         <v>177</v>
       </c>
       <c r="B175" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C175" t="n">
-        <v>3113.72224527895</v>
+        <v>2953.00975877194</v>
       </c>
       <c r="D175" t="n">
-        <v>0.811132843369955</v>
+        <v>0.765548404501631</v>
       </c>
     </row>
     <row r="176">
@@ -3578,13 +3578,13 @@
         <v>178</v>
       </c>
       <c r="B176" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C176" t="n">
-        <v>3538.43910494376</v>
+        <v>2970.09458439547</v>
       </c>
       <c r="D176" t="n">
-        <v>4.1771197602647</v>
+        <v>0.747460652849286</v>
       </c>
     </row>
     <row r="177">
@@ -3592,13 +3592,13 @@
         <v>179</v>
       </c>
       <c r="B177" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C177" t="n">
-        <v>2850.64130510401</v>
+        <v>3053.59649512142</v>
       </c>
       <c r="D177" t="n">
-        <v>1.00672210261251</v>
+        <v>1.32031424373472</v>
       </c>
     </row>
     <row r="178">
@@ -3606,13 +3606,13 @@
         <v>180</v>
       </c>
       <c r="B178" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C178" t="n">
-        <v>3042.98733516653</v>
+        <v>3046.59444121927</v>
       </c>
       <c r="D178" t="n">
-        <v>0.615739497806436</v>
+        <v>1.15990777554402</v>
       </c>
     </row>
     <row r="179">
@@ -3620,13 +3620,13 @@
         <v>181</v>
       </c>
       <c r="B179" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C179" t="n">
-        <v>5959.07682799075</v>
+        <v>2961.89163482894</v>
       </c>
       <c r="D179" t="n">
-        <v>27.0148117030784</v>
+        <v>0.297468481467</v>
       </c>
     </row>
     <row r="180">
@@ -3634,13 +3634,13 @@
         <v>182</v>
       </c>
       <c r="B180" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C180" t="n">
-        <v>4697.08588717531</v>
+        <v>3532.14442014761</v>
       </c>
       <c r="D180" t="n">
-        <v>6.52054101211441</v>
+        <v>1.85750516660881</v>
       </c>
     </row>
     <row r="181">
@@ -3648,13 +3648,13 @@
         <v>183</v>
       </c>
       <c r="B181" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C181" t="n">
-        <v>3353.86616483969</v>
+        <v>2990.45578339832</v>
       </c>
       <c r="D181" t="n">
-        <v>1.76057604602337</v>
+        <v>1.04126605007978</v>
       </c>
     </row>
     <row r="182">
@@ -3662,13 +3662,13 @@
         <v>184</v>
       </c>
       <c r="B182" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C182" t="n">
-        <v>4270.00187690913</v>
+        <v>2746.55843236307</v>
       </c>
       <c r="D182" t="n">
-        <v>11.1502822660775</v>
+        <v>0.0808427549730893</v>
       </c>
     </row>
     <row r="183">
@@ -3676,13 +3676,13 @@
         <v>185</v>
       </c>
       <c r="B183" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C183" t="n">
-        <v>3027.88319958652</v>
+        <v>2697.43834355361</v>
       </c>
       <c r="D183" t="n">
-        <v>0.38167002666133</v>
+        <v>0.560101015016123</v>
       </c>
     </row>
     <row r="184">
@@ -3690,13 +3690,13 @@
         <v>186</v>
       </c>
       <c r="B184" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C184" t="n">
-        <v>2469.28951739662</v>
+        <v>2634.86976626817</v>
       </c>
       <c r="D184" t="n">
-        <v>0.136560707583022</v>
+        <v>0.203884190438267</v>
       </c>
     </row>
     <row r="185">
@@ -3704,13 +3704,13 @@
         <v>187</v>
       </c>
       <c r="B185" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C185" t="n">
-        <v>2712.40397597115</v>
+        <v>2757.93139778704</v>
       </c>
       <c r="D185" t="n">
-        <v>1.05525983674784</v>
+        <v>0.290355050900811</v>
       </c>
     </row>
     <row r="186">
@@ -3718,13 +3718,13 @@
         <v>188</v>
       </c>
       <c r="B186" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C186" t="n">
-        <v>6084.87243618327</v>
+        <v>2894.99365757006</v>
       </c>
       <c r="D186" t="n">
-        <v>40.412545833616</v>
+        <v>0.857200005707981</v>
       </c>
     </row>
     <row r="187">
@@ -3732,13 +3732,13 @@
         <v>189</v>
       </c>
       <c r="B187" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C187" t="n">
-        <v>2604.71352245461</v>
+        <v>3087.70449818596</v>
       </c>
       <c r="D187" t="n">
-        <v>0.270138261266016</v>
+        <v>2.08911525086594</v>
       </c>
     </row>
     <row r="188">
@@ -3746,13 +3746,13 @@
         <v>190</v>
       </c>
       <c r="B188" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C188" t="n">
-        <v>3148.61017135048</v>
+        <v>2480.12803662659</v>
       </c>
       <c r="D188" t="n">
-        <v>0.809296346325195</v>
+        <v>0.341838866609574</v>
       </c>
     </row>
     <row r="189">
@@ -3760,13 +3760,13 @@
         <v>191</v>
       </c>
       <c r="B189" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C189" t="n">
-        <v>2564.8657727735</v>
+        <v>3499.05378090722</v>
       </c>
       <c r="D189" t="n">
-        <v>0.219688430422275</v>
+        <v>2.18157085075932</v>
       </c>
     </row>
     <row r="190">
@@ -3774,13 +3774,13 @@
         <v>192</v>
       </c>
       <c r="B190" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C190" t="n">
-        <v>2631.58276669428</v>
+        <v>2760.17142148364</v>
       </c>
       <c r="D190" t="n">
-        <v>0.304515342477795</v>
+        <v>0.770759599534192</v>
       </c>
     </row>
     <row r="191">
@@ -3788,13 +3788,13 @@
         <v>193</v>
       </c>
       <c r="B191" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C191" t="n">
-        <v>3871.32717714913</v>
+        <v>3906.76938642379</v>
       </c>
       <c r="D191" t="n">
-        <v>5.96297778579321</v>
+        <v>6.5137841558109</v>
       </c>
     </row>
     <row r="192">
@@ -3802,13 +3802,13 @@
         <v>194</v>
       </c>
       <c r="B192" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C192" t="n">
-        <v>2785.43220221636</v>
+        <v>2682.0848911987</v>
       </c>
       <c r="D192" t="n">
-        <v>0.226222155024847</v>
+        <v>0.27246368817064</v>
       </c>
     </row>
     <row r="193">
@@ -3816,13 +3816,13 @@
         <v>195</v>
       </c>
       <c r="B193" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C193" t="n">
-        <v>4601.54701073384</v>
+        <v>3127.66409770663</v>
       </c>
       <c r="D193" t="n">
-        <v>8.14249867877464</v>
+        <v>3.51625241913177</v>
       </c>
     </row>
     <row r="194">
@@ -3830,13 +3830,13 @@
         <v>196</v>
       </c>
       <c r="B194" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C194" t="n">
-        <v>5448.12081998741</v>
+        <v>2880.68012995382</v>
       </c>
       <c r="D194" t="n">
-        <v>15.7390968956998</v>
+        <v>0.251134757527331</v>
       </c>
     </row>
     <row r="195">
@@ -3844,13 +3844,13 @@
         <v>197</v>
       </c>
       <c r="B195" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C195" t="n">
-        <v>3252.20177872213</v>
+        <v>3032.88960333243</v>
       </c>
       <c r="D195" t="n">
-        <v>0.678143760375429</v>
+        <v>1.15453976416799</v>
       </c>
     </row>
     <row r="196">
@@ -3858,13 +3858,13 @@
         <v>198</v>
       </c>
       <c r="B196" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C196" t="n">
-        <v>4835.64509046028</v>
+        <v>3026.51023168893</v>
       </c>
       <c r="D196" t="n">
-        <v>11.1881786425061</v>
+        <v>0.679850420807873</v>
       </c>
     </row>
     <row r="197">
@@ -3872,13 +3872,13 @@
         <v>199</v>
       </c>
       <c r="B197" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C197" t="n">
-        <v>3144.5700814935</v>
+        <v>3558.69954149826</v>
       </c>
       <c r="D197" t="n">
-        <v>1.2948653699905</v>
+        <v>1.78990867571412</v>
       </c>
     </row>
     <row r="198">
@@ -3886,13 +3886,13 @@
         <v>200</v>
       </c>
       <c r="B198" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C198" t="n">
-        <v>2654.26503569898</v>
+        <v>3607.55339186196</v>
       </c>
       <c r="D198" t="n">
-        <v>0.29431853582875</v>
+        <v>2.52233783335592</v>
       </c>
     </row>
     <row r="199">
@@ -3900,13 +3900,13 @@
         <v>201</v>
       </c>
       <c r="B199" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C199" t="n">
-        <v>3038.46257337213</v>
+        <v>4232.82404694562</v>
       </c>
       <c r="D199" t="n">
-        <v>0.980489670470349</v>
+        <v>8.12130224688724</v>
       </c>
     </row>
     <row r="200">
@@ -3914,13 +3914,13 @@
         <v>202</v>
       </c>
       <c r="B200" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C200" t="n">
-        <v>3174.02591598528</v>
+        <v>2915.98038457492</v>
       </c>
       <c r="D200" t="n">
-        <v>1.37595611598744</v>
+        <v>0.579925750389677</v>
       </c>
     </row>
     <row r="201">
@@ -3928,13 +3928,13 @@
         <v>203</v>
       </c>
       <c r="B201" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C201" t="n">
-        <v>4134.75949486249</v>
+        <v>3839.8773494545</v>
       </c>
       <c r="D201" t="n">
-        <v>7.82968808812818</v>
+        <v>4.86360922271406</v>
       </c>
     </row>
     <row r="202">
@@ -3942,13 +3942,13 @@
         <v>204</v>
       </c>
       <c r="B202" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C202" t="n">
-        <v>3032.9775834874</v>
+        <v>3022.40115288781</v>
       </c>
       <c r="D202" t="n">
-        <v>1.38264091013933</v>
+        <v>0.463908971232444</v>
       </c>
     </row>
     <row r="203">
@@ -3956,13 +3956,13 @@
         <v>205</v>
       </c>
       <c r="B203" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C203" t="n">
-        <v>7344.40578120068</v>
+        <v>2450.2136761571</v>
       </c>
       <c r="D203" t="n">
-        <v>42.0406830062223</v>
+        <v>0.511532913321437</v>
       </c>
     </row>
     <row r="204">
@@ -3970,13 +3970,13 @@
         <v>206</v>
       </c>
       <c r="B204" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C204" t="n">
-        <v>4425.16624043576</v>
+        <v>2834.82876278346</v>
       </c>
       <c r="D204" t="n">
-        <v>5.98624690245282</v>
+        <v>0.522830119534472</v>
       </c>
     </row>
     <row r="205">
@@ -3984,13 +3984,13 @@
         <v>207</v>
       </c>
       <c r="B205" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C205" t="n">
-        <v>2940.86295549825</v>
+        <v>2847.47009198272</v>
       </c>
       <c r="D205" t="n">
-        <v>0.335743118220432</v>
+        <v>1.30449026241266</v>
       </c>
     </row>
     <row r="206">
@@ -3998,13 +3998,13 @@
         <v>208</v>
       </c>
       <c r="B206" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C206" t="n">
-        <v>3216.77467735912</v>
+        <v>2534.8154190262</v>
       </c>
       <c r="D206" t="n">
-        <v>1.78885074942299</v>
+        <v>0.404394558937419</v>
       </c>
     </row>
     <row r="207">
@@ -4012,13 +4012,13 @@
         <v>209</v>
       </c>
       <c r="B207" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C207" t="n">
-        <v>3392.98990680689</v>
+        <v>2772.82239146445</v>
       </c>
       <c r="D207" t="n">
-        <v>2.3558246813891</v>
+        <v>1.11878308042119</v>
       </c>
     </row>
     <row r="208">
@@ -4026,13 +4026,13 @@
         <v>210</v>
       </c>
       <c r="B208" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C208" t="n">
-        <v>4151.3682002073</v>
+        <v>3228.77120302157</v>
       </c>
       <c r="D208" t="n">
-        <v>5.95359202080663</v>
+        <v>1.15594099872548</v>
       </c>
     </row>
     <row r="209">
@@ -4040,13 +4040,13 @@
         <v>211</v>
       </c>
       <c r="B209" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C209" t="n">
-        <v>2638.74777812776</v>
+        <v>3376.11595267757</v>
       </c>
       <c r="D209" t="n">
-        <v>0.220166265174221</v>
+        <v>1.89434252564598</v>
       </c>
     </row>
     <row r="210">
@@ -4054,13 +4054,13 @@
         <v>212</v>
       </c>
       <c r="B210" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C210" t="n">
-        <v>3008.66752846791</v>
+        <v>3253.0546398305</v>
       </c>
       <c r="D210" t="n">
-        <v>0.742372708585891</v>
+        <v>1.41853372318281</v>
       </c>
     </row>
     <row r="211">
@@ -4068,13 +4068,13 @@
         <v>213</v>
       </c>
       <c r="B211" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C211" t="n">
-        <v>3067.92035587028</v>
+        <v>3138.7294776676</v>
       </c>
       <c r="D211" t="n">
-        <v>0.976963043561572</v>
+        <v>1.63103796582133</v>
       </c>
     </row>
     <row r="212">
@@ -4082,13 +4082,13 @@
         <v>214</v>
       </c>
       <c r="B212" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C212" t="n">
-        <v>3418.60446737176</v>
+        <v>3230.25655943223</v>
       </c>
       <c r="D212" t="n">
-        <v>1.46297168142544</v>
+        <v>2.80590178759204</v>
       </c>
     </row>
     <row r="213">
@@ -4096,13 +4096,13 @@
         <v>215</v>
       </c>
       <c r="B213" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C213" t="n">
-        <v>2505.32067594105</v>
+        <v>3334.12257033228</v>
       </c>
       <c r="D213" t="n">
-        <v>0.187863945019508</v>
+        <v>0.624565739239769</v>
       </c>
     </row>
     <row r="214">
@@ -4110,13 +4110,13 @@
         <v>216</v>
       </c>
       <c r="B214" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C214" t="n">
-        <v>3741.00026781472</v>
+        <v>2853.49481289267</v>
       </c>
       <c r="D214" t="n">
-        <v>3.90360543623924</v>
+        <v>0.765935373380825</v>
       </c>
     </row>
     <row r="215">
@@ -4124,13 +4124,13 @@
         <v>217</v>
       </c>
       <c r="B215" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C215" t="n">
-        <v>4062.86905964402</v>
+        <v>2863.58898712923</v>
       </c>
       <c r="D215" t="n">
-        <v>5.35427196826485</v>
+        <v>0.84545860721318</v>
       </c>
     </row>
     <row r="216">
@@ -4138,13 +4138,13 @@
         <v>218</v>
       </c>
       <c r="B216" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C216" t="n">
-        <v>2851.27784488334</v>
+        <v>2899.3781585391</v>
       </c>
       <c r="D216" t="n">
-        <v>1.4549026586573</v>
+        <v>0.916864846060511</v>
       </c>
     </row>
     <row r="217">
@@ -4152,13 +4152,13 @@
         <v>219</v>
       </c>
       <c r="B217" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C217" t="n">
-        <v>3867.47206148274</v>
+        <v>2940.64024102799</v>
       </c>
       <c r="D217" t="n">
-        <v>6.33991622247505</v>
+        <v>0.402407962783225</v>
       </c>
     </row>
     <row r="218">
@@ -4166,13 +4166,13 @@
         <v>220</v>
       </c>
       <c r="B218" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C218" t="n">
-        <v>2741.7378633391</v>
+        <v>3354.86071641407</v>
       </c>
       <c r="D218" t="n">
-        <v>0.296860910808803</v>
+        <v>2.21050460180962</v>
       </c>
     </row>
     <row r="219">
@@ -4180,13 +4180,13 @@
         <v>221</v>
       </c>
       <c r="B219" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C219" t="n">
-        <v>4848.94532696946</v>
+        <v>3180.72099222103</v>
       </c>
       <c r="D219" t="n">
-        <v>8.2222893913166</v>
+        <v>1.13582937392613</v>
       </c>
     </row>
     <row r="220">
@@ -4194,13 +4194,13 @@
         <v>222</v>
       </c>
       <c r="B220" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C220" t="n">
-        <v>2774.46821544996</v>
+        <v>2862.37223272688</v>
       </c>
       <c r="D220" t="n">
-        <v>0.588768851001757</v>
+        <v>0.770094016529832</v>
       </c>
     </row>
     <row r="221">
@@ -4208,13 +4208,13 @@
         <v>223</v>
       </c>
       <c r="B221" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C221" t="n">
-        <v>4280.91337073604</v>
+        <v>3173.28292408289</v>
       </c>
       <c r="D221" t="n">
-        <v>3.72407908521589</v>
+        <v>1.5032555412441</v>
       </c>
     </row>
     <row r="222">
@@ -4222,13 +4222,13 @@
         <v>224</v>
       </c>
       <c r="B222" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C222" t="n">
-        <v>3158.68893559139</v>
+        <v>3054.64056422397</v>
       </c>
       <c r="D222" t="n">
-        <v>1.18114841433695</v>
+        <v>1.47931776515545</v>
       </c>
     </row>
     <row r="223">
@@ -4236,13 +4236,13 @@
         <v>225</v>
       </c>
       <c r="B223" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C223" t="n">
-        <v>3460.12971289159</v>
+        <v>3091.92896551831</v>
       </c>
       <c r="D223" t="n">
-        <v>2.94989590726607</v>
+        <v>1.01617623977634</v>
       </c>
     </row>
     <row r="224">
@@ -4250,13 +4250,13 @@
         <v>226</v>
       </c>
       <c r="B224" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C224" t="n">
-        <v>3224.37472287878</v>
+        <v>3438.51716570453</v>
       </c>
       <c r="D224" t="n">
-        <v>2.12095821768706</v>
+        <v>3.17480644825666</v>
       </c>
     </row>
     <row r="225">
@@ -4264,13 +4264,13 @@
         <v>227</v>
       </c>
       <c r="B225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C225" t="n">
-        <v>3226.62435713312</v>
+        <v>3162.99704081503</v>
       </c>
       <c r="D225" t="n">
-        <v>1.23071194475966</v>
+        <v>1.46951508680579</v>
       </c>
     </row>
     <row r="226">
@@ -4278,13 +4278,13 @@
         <v>228</v>
       </c>
       <c r="B226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C226" t="n">
-        <v>6407.42938869053</v>
+        <v>2458.33944862256</v>
       </c>
       <c r="D226" t="n">
-        <v>33.7664421347072</v>
+        <v>0.204827470045123</v>
       </c>
     </row>
     <row r="227">
@@ -4295,10 +4295,10 @@
         <v>2</v>
       </c>
       <c r="C227" t="n">
-        <v>4264.44348336301</v>
+        <v>2891.5615966167</v>
       </c>
       <c r="D227" t="n">
-        <v>7.12447338135596</v>
+        <v>0.90489334189063</v>
       </c>
     </row>
     <row r="228">
@@ -4309,10 +4309,10 @@
         <v>2</v>
       </c>
       <c r="C228" t="n">
-        <v>3514.70019473429</v>
+        <v>2913.0333748114</v>
       </c>
       <c r="D228" t="n">
-        <v>1.81894761032178</v>
+        <v>0.223898772244714</v>
       </c>
     </row>
     <row r="229">
@@ -4320,13 +4320,13 @@
         <v>231</v>
       </c>
       <c r="B229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C229" t="n">
-        <v>3735.35030087632</v>
+        <v>2576.00610209551</v>
       </c>
       <c r="D229" t="n">
-        <v>3.67860195067944</v>
+        <v>0.636534282426535</v>
       </c>
     </row>
     <row r="230">
@@ -4334,13 +4334,13 @@
         <v>232</v>
       </c>
       <c r="B230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C230" t="n">
-        <v>3474.2814268678</v>
+        <v>2494.59323151161</v>
       </c>
       <c r="D230" t="n">
-        <v>2.10932820557752</v>
+        <v>0.159111369271415</v>
       </c>
     </row>
     <row r="231">
@@ -4348,13 +4348,13 @@
         <v>233</v>
       </c>
       <c r="B231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C231" t="n">
-        <v>4695.53652232976</v>
+        <v>3066.069880895</v>
       </c>
       <c r="D231" t="n">
-        <v>12.0294797965719</v>
+        <v>1.31358937747312</v>
       </c>
     </row>
     <row r="232">
@@ -4362,13 +4362,13 @@
         <v>234</v>
       </c>
       <c r="B232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C232" t="n">
-        <v>3860.24245595908</v>
+        <v>2980.36794266359</v>
       </c>
       <c r="D232" t="n">
-        <v>3.46086890485997</v>
+        <v>1.81754864065393</v>
       </c>
     </row>
     <row r="233">
@@ -4376,13 +4376,13 @@
         <v>235</v>
       </c>
       <c r="B233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C233" t="n">
-        <v>3090.95127006207</v>
+        <v>2454.43503653199</v>
       </c>
       <c r="D233" t="n">
-        <v>1.24728604378561</v>
+        <v>0.262413835460434</v>
       </c>
     </row>
     <row r="234">
@@ -4390,13 +4390,13 @@
         <v>236</v>
       </c>
       <c r="B234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C234" t="n">
-        <v>3338.70621955669</v>
+        <v>2704.94365462829</v>
       </c>
       <c r="D234" t="n">
-        <v>0.842746972386046</v>
+        <v>0.662108216025842</v>
       </c>
     </row>
     <row r="235">
@@ -4407,10 +4407,10 @@
         <v>1</v>
       </c>
       <c r="C235" t="n">
-        <v>5498.04460871762</v>
+        <v>2658.96583358248</v>
       </c>
       <c r="D235" t="n">
-        <v>21.7344823479469</v>
+        <v>0.510576067115818</v>
       </c>
     </row>
     <row r="236">
@@ -4421,10 +4421,10 @@
         <v>1</v>
       </c>
       <c r="C236" t="n">
-        <v>3042.43844001391</v>
+        <v>3540.22523037881</v>
       </c>
       <c r="D236" t="n">
-        <v>0.580825430919232</v>
+        <v>3.96610910830498</v>
       </c>
     </row>
     <row r="237">
@@ -4435,10 +4435,10 @@
         <v>1</v>
       </c>
       <c r="C237" t="n">
-        <v>3464.59630573594</v>
+        <v>3184.02584934524</v>
       </c>
       <c r="D237" t="n">
-        <v>1.21664868183689</v>
+        <v>1.47847086752897</v>
       </c>
     </row>
     <row r="238">
@@ -4449,10 +4449,10 @@
         <v>1</v>
       </c>
       <c r="C238" t="n">
-        <v>2903.86701473804</v>
+        <v>3132.75629269607</v>
       </c>
       <c r="D238" t="n">
-        <v>1.35510863062124</v>
+        <v>1.00784569287012</v>
       </c>
     </row>
     <row r="239">
@@ -4463,10 +4463,10 @@
         <v>1</v>
       </c>
       <c r="C239" t="n">
-        <v>2845.50485706945</v>
+        <v>2737.12979718365</v>
       </c>
       <c r="D239" t="n">
-        <v>1.00762357060784</v>
+        <v>0.292524014223693</v>
       </c>
     </row>
     <row r="240">
@@ -4477,10 +4477,10 @@
         <v>1</v>
       </c>
       <c r="C240" t="n">
-        <v>5483.42733515495</v>
+        <v>2960.72150291933</v>
       </c>
       <c r="D240" t="n">
-        <v>20.974269477716</v>
+        <v>0.892808289582727</v>
       </c>
     </row>
     <row r="241">
@@ -4491,10 +4491,10 @@
         <v>1</v>
       </c>
       <c r="C241" t="n">
-        <v>3510.91260947012</v>
+        <v>3121.11672897089</v>
       </c>
       <c r="D241" t="n">
-        <v>1.24901722463663</v>
+        <v>0.913700396579509</v>
       </c>
     </row>
     <row r="242">
@@ -4505,10 +4505,10 @@
         <v>1</v>
       </c>
       <c r="C242" t="n">
-        <v>3971.4186119084</v>
+        <v>3039.28813480125</v>
       </c>
       <c r="D242" t="n">
-        <v>5.80993060649105</v>
+        <v>0.91078952589863</v>
       </c>
     </row>
     <row r="243">
@@ -4519,10 +4519,10 @@
         <v>1</v>
       </c>
       <c r="C243" t="n">
-        <v>3401.07402818311</v>
+        <v>2634.20676599163</v>
       </c>
       <c r="D243" t="n">
-        <v>3.30625678224187</v>
+        <v>0.391412162602453</v>
       </c>
     </row>
     <row r="244">
@@ -4533,10 +4533,10 @@
         <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>6508.19279215052</v>
+        <v>2564.45615116005</v>
       </c>
       <c r="D244" t="n">
-        <v>22.939977260561</v>
+        <v>0.41563872420237</v>
       </c>
     </row>
     <row r="245">
@@ -4547,10 +4547,10 @@
         <v>0</v>
       </c>
       <c r="C245" t="n">
-        <v>3021.18942844221</v>
+        <v>2995.88212606773</v>
       </c>
       <c r="D245" t="n">
-        <v>1.03327448810127</v>
+        <v>0.984343092001287</v>
       </c>
     </row>
     <row r="246">
@@ -4561,10 +4561,10 @@
         <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>3041.21958648688</v>
+        <v>2683.57167368606</v>
       </c>
       <c r="D246" t="n">
-        <v>1.27730961555651</v>
+        <v>0.386123355475994</v>
       </c>
     </row>
     <row r="247">
@@ -4575,10 +4575,10 @@
         <v>0</v>
       </c>
       <c r="C247" t="n">
-        <v>3406.91521644938</v>
+        <v>2619.93268846583</v>
       </c>
       <c r="D247" t="n">
-        <v>3.57944236494305</v>
+        <v>0.243357453212025</v>
       </c>
     </row>
     <row r="248">
@@ -4589,10 +4589,10 @@
         <v>0</v>
       </c>
       <c r="C248" t="n">
-        <v>2782.2923024173</v>
+        <v>2817.47955457307</v>
       </c>
       <c r="D248" t="n">
-        <v>0.823415943115853</v>
+        <v>0.551936238785743</v>
       </c>
     </row>
     <row r="249">
@@ -4603,10 +4603,10 @@
         <v>0</v>
       </c>
       <c r="C249" t="n">
-        <v>3826.53493101979</v>
+        <v>2439.93911757448</v>
       </c>
       <c r="D249" t="n">
-        <v>6.18441586932683</v>
+        <v>0.489808276522056</v>
       </c>
     </row>
     <row r="250">
@@ -4617,10 +4617,10 @@
         <v>0</v>
       </c>
       <c r="C250" t="n">
-        <v>3912.77831025813</v>
+        <v>2953.33347783786</v>
       </c>
       <c r="D250" t="n">
-        <v>6.47895468524274</v>
+        <v>1.31544146729738</v>
       </c>
     </row>
     <row r="251">
@@ -4631,10 +4631,10 @@
         <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>2827.02549278829</v>
+        <v>2623.56397279024</v>
       </c>
       <c r="D251" t="n">
-        <v>0.219394547952259</v>
+        <v>0.373393830116442</v>
       </c>
     </row>
     <row r="252">
@@ -4645,10 +4645,10 @@
         <v>0</v>
       </c>
       <c r="C252" t="n">
-        <v>2595.68714582025</v>
+        <v>2538.1255451921</v>
       </c>
       <c r="D252" t="n">
-        <v>0.508379465631088</v>
+        <v>0.12499777994313</v>
       </c>
     </row>
     <row r="253">
@@ -4659,10 +4659,10 @@
         <v>0</v>
       </c>
       <c r="C253" t="n">
-        <v>2768.06641494393</v>
+        <v>3001.68223054951</v>
       </c>
       <c r="D253" t="n">
-        <v>0.639389930190606</v>
+        <v>0.390191265146961</v>
       </c>
     </row>
     <row r="254">
@@ -4673,10 +4673,10 @@
         <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>2944.77218326024</v>
+        <v>2927.49092284524</v>
       </c>
       <c r="D254" t="n">
-        <v>0.204208573274591</v>
+        <v>0.779617482267429</v>
       </c>
     </row>
     <row r="255">
@@ -4687,10 +4687,10 @@
         <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>3121.10883030342</v>
+        <v>2845.60306856528</v>
       </c>
       <c r="D255" t="n">
-        <v>2.02483044690866</v>
+        <v>1.14048964699282</v>
       </c>
     </row>
     <row r="256">
@@ -4701,10 +4701,10 @@
         <v>0</v>
       </c>
       <c r="C256" t="n">
-        <v>3347.43737787737</v>
+        <v>2697.13898459136</v>
       </c>
       <c r="D256" t="n">
-        <v>2.06981328009672</v>
+        <v>1.27624844137038</v>
       </c>
     </row>
     <row r="257">
@@ -4715,10 +4715,10 @@
         <v>0</v>
       </c>
       <c r="C257" t="n">
-        <v>3337.01113536836</v>
+        <v>2553.13678247474</v>
       </c>
       <c r="D257" t="n">
-        <v>3.18272167977802</v>
+        <v>0.235434442230218</v>
       </c>
     </row>
   </sheetData>
